--- a/Backend/Charge_Simulink_full.xlsx
+++ b/Backend/Charge_Simulink_full.xlsx
@@ -8,31 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taras\Documents\HAW\Batterietechnik_Studienarbeit\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{110774EE-6E4D-41A5-A3D0-BDBE37DA07F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B1D323-38A6-4A74-B59F-F3250AB8AEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EAA0FAC-4335-4124-A2B5-298FE5DBDD81}"/>
   </bookViews>
   <sheets>
-    <sheet name="Charge_Simulink" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Time</t>
+    <t>Ladung [F]</t>
   </si>
   <si>
-    <t>Charge</t>
+    <t>Zeit_sim [s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,316 +56,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -357,204 +73,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -865,21 +392,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFC09DE-DB54-48F4-A1CE-E637DFA264FA}">
   <dimension ref="A1:B2362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2362"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +2500,7 @@
         <v>130.5</v>
       </c>
       <c r="B263">
-        <v>-2464.30494355674</v>
+        <v>-2464.30494355675</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3191,7 +2716,7 @@
         <v>144</v>
       </c>
       <c r="B290">
-        <v>-3357.9431862165402</v>
+        <v>-3357.9431862165502</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -3199,7 +2724,7 @@
         <v>144.5</v>
       </c>
       <c r="B291">
-        <v>-3357.9431862165402</v>
+        <v>-3357.9431862165502</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -3295,7 +2820,7 @@
         <v>150.5</v>
       </c>
       <c r="B303">
-        <v>-3435.5527050953301</v>
+        <v>-3435.5527050953401</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -3343,7 +2868,7 @@
         <v>153.5</v>
       </c>
       <c r="B309">
-        <v>-3488.6356143733501</v>
+        <v>-3488.6356143733601</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -3375,7 +2900,7 @@
         <v>155.5</v>
       </c>
       <c r="B313">
-        <v>-3496.4125294159498</v>
+        <v>-3496.4125294159599</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -3383,7 +2908,7 @@
         <v>156</v>
       </c>
       <c r="B314">
-        <v>-3479.22815719866</v>
+        <v>-3479.22815719867</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -3519,7 +3044,7 @@
         <v>164.5</v>
       </c>
       <c r="B331">
-        <v>-3063.4757169415002</v>
+        <v>-3063.4757169415102</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -3551,7 +3076,7 @@
         <v>166.5</v>
       </c>
       <c r="B335">
-        <v>-3088.0028895141299</v>
+        <v>-3088.00288951414</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3084,7 @@
         <v>167</v>
       </c>
       <c r="B336">
-        <v>-3088.0028895141299</v>
+        <v>-3088.00288951414</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -3567,7 +3092,7 @@
         <v>167.5</v>
       </c>
       <c r="B337">
-        <v>-3088.0028895141299</v>
+        <v>-3088.00288951414</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -3575,7 +3100,7 @@
         <v>168</v>
       </c>
       <c r="B338">
-        <v>-3088.0028895141299</v>
+        <v>-3088.00288951414</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3260,7 @@
         <v>178</v>
       </c>
       <c r="B358">
-        <v>-3040.2350643118202</v>
+        <v>-3040.2350643118298</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -8079,7 +7604,7 @@
         <v>449.5</v>
       </c>
       <c r="B901">
-        <v>-2883.0619106638601</v>
+        <v>-2883.0619106638501</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
@@ -8095,7 +7620,7 @@
         <v>450.5</v>
       </c>
       <c r="B903">
-        <v>-2954.4093593062798</v>
+        <v>-2954.4093593062698</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
@@ -8175,7 +7700,7 @@
         <v>455.5</v>
       </c>
       <c r="B913">
-        <v>-2948.8791434158502</v>
+        <v>-2948.8791434158402</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
@@ -8519,7 +8044,7 @@
         <v>477</v>
       </c>
       <c r="B956">
-        <v>-2765.9603924150301</v>
+        <v>-2765.9603924150201</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
@@ -9119,7 +8644,7 @@
         <v>514.5</v>
       </c>
       <c r="B1031">
-        <v>-2699.2546089900802</v>
+        <v>-2699.2546089900702</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
@@ -9127,7 +8652,7 @@
         <v>515</v>
       </c>
       <c r="B1032">
-        <v>-2699.2546089900802</v>
+        <v>-2699.2546089900702</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
@@ -9575,7 +9100,7 @@
         <v>543</v>
       </c>
       <c r="B1088">
-        <v>-3657.7659030769701</v>
+        <v>-3657.7659030769601</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
@@ -10487,7 +10012,7 @@
         <v>600</v>
       </c>
       <c r="B1202">
-        <v>-2664.7087900926999</v>
+        <v>-2664.7087900926899</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
@@ -10543,7 +10068,7 @@
         <v>603.5</v>
       </c>
       <c r="B1209">
-        <v>-2606.9040230280498</v>
+        <v>-2606.9040230280398</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
@@ -12463,7 +11988,7 @@
         <v>723.5</v>
       </c>
       <c r="B1449">
-        <v>-3364.7359262946302</v>
+        <v>-3364.7359262946402</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
@@ -12567,7 +12092,7 @@
         <v>730</v>
       </c>
       <c r="B1462">
-        <v>-3581.05302672073</v>
+        <v>-3581.05302672074</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.25">
@@ -12647,7 +12172,7 @@
         <v>735</v>
       </c>
       <c r="B1472">
-        <v>-3626.1837604710399</v>
+        <v>-3626.1837604710499</v>
       </c>
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
@@ -12943,7 +12468,7 @@
         <v>753.5</v>
       </c>
       <c r="B1509">
-        <v>-3103.8979312087899</v>
+        <v>-3103.8979312087999</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
@@ -12991,7 +12516,7 @@
         <v>756.5</v>
       </c>
       <c r="B1515">
-        <v>-3092.3244095863602</v>
+        <v>-3092.3244095863702</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.25">
@@ -14319,7 +13844,7 @@
         <v>839.5</v>
       </c>
       <c r="B1681">
-        <v>-4086.2961102161098</v>
+        <v>-4086.2961086632599</v>
       </c>
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
@@ -14327,7 +13852,7 @@
         <v>840</v>
       </c>
       <c r="B1682">
-        <v>-4082.9208300646101</v>
+        <v>-4082.9208308018801</v>
       </c>
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
@@ -14335,7 +13860,7 @@
         <v>840.5</v>
       </c>
       <c r="B1683">
-        <v>-4082.9208300646101</v>
+        <v>-4082.9208308018801</v>
       </c>
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
@@ -14343,7 +13868,7 @@
         <v>841</v>
       </c>
       <c r="B1684">
-        <v>-4095.0658957509099</v>
+        <v>-4095.06595577909</v>
       </c>
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
@@ -14351,7 +13876,7 @@
         <v>841.5</v>
       </c>
       <c r="B1685">
-        <v>-4104.0023508465301</v>
+        <v>-4104.0024940675403</v>
       </c>
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
@@ -14359,7 +13884,7 @@
         <v>842</v>
       </c>
       <c r="B1686">
-        <v>-4116.2441058779395</v>
+        <v>-4116.24436039179</v>
       </c>
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
@@ -14367,7 +13892,7 @@
         <v>842.5</v>
       </c>
       <c r="B1687">
-        <v>-4127.4067077539503</v>
+        <v>-4127.4070776858998</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
@@ -14375,7 +13900,7 @@
         <v>843</v>
       </c>
       <c r="B1688">
-        <v>-4134.0949578256404</v>
+        <v>-4134.0953946599402</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
@@ -14383,7 +13908,7 @@
         <v>843.5</v>
       </c>
       <c r="B1689">
-        <v>-4140.7491277747204</v>
+        <v>-4140.74963255079</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
@@ -14391,7 +13916,7 @@
         <v>844</v>
       </c>
       <c r="B1690">
-        <v>-4147.3987056935102</v>
+        <v>-4147.3993000149503</v>
       </c>
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
@@ -14399,7 +13924,7 @@
         <v>844.5</v>
       </c>
       <c r="B1691">
-        <v>-4154.0441122418797</v>
+        <v>-4154.0448180725898</v>
       </c>
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
@@ -14407,7 +13932,7 @@
         <v>845</v>
       </c>
       <c r="B1692">
-        <v>-4160.6855664507602</v>
+        <v>-4160.6864057284301</v>
       </c>
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
@@ -14415,7 +13940,7 @@
         <v>845.5</v>
       </c>
       <c r="B1693">
-        <v>-4167.3232753823304</v>
+        <v>-4167.3242699148896</v>
       </c>
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
@@ -14423,7 +13948,7 @@
         <v>846</v>
       </c>
       <c r="B1694">
-        <v>-4173.9574359327298</v>
+        <v>-4173.9586073050104</v>
       </c>
     </row>
     <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
@@ -14431,7 +13956,7 @@
         <v>846.5</v>
       </c>
       <c r="B1695">
-        <v>-4180.5882353732604</v>
+        <v>-4180.5896048606801</v>
       </c>
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
@@ -14439,7 +13964,7 @@
         <v>847</v>
       </c>
       <c r="B1696">
-        <v>-4187.2158518529804</v>
+        <v>-4187.2174403421204</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
@@ -14447,7 +13972,7 @@
         <v>847.5</v>
       </c>
       <c r="B1697">
-        <v>-4193.8404548726703</v>
+        <v>-4193.8422827884096</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.25">
@@ -14455,7 +13980,7 @@
         <v>848</v>
       </c>
       <c r="B1698">
-        <v>-4200.4622057319202</v>
+        <v>-4200.4642929709798</v>
       </c>
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
@@ -14463,7 +13988,7 @@
         <v>848.5</v>
       </c>
       <c r="B1699">
-        <v>-4207.0812579511103</v>
+        <v>-4207.0836238217098</v>
       </c>
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
@@ -14471,7 +13996,7 @@
         <v>849</v>
       </c>
       <c r="B1700">
-        <v>-4213.69775766975</v>
+        <v>-4213.70042083719</v>
       </c>
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
@@ -14479,7 +14004,7 @@
         <v>849.5</v>
       </c>
       <c r="B1701">
-        <v>-4220.31184402279</v>
+        <v>-4220.3148224605802</v>
       </c>
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
@@ -14487,7 +14012,7 @@
         <v>850</v>
       </c>
       <c r="B1702">
-        <v>-4226.9236494959796</v>
+        <v>-4226.9269604423998</v>
       </c>
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
@@ -14495,7 +14020,7 @@
         <v>850.5</v>
       </c>
       <c r="B1703">
-        <v>-4233.53330026188</v>
+        <v>-4233.5369601816901</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.25">
@@ -14503,7 +14028,7 @@
         <v>851</v>
       </c>
       <c r="B1704">
-        <v>-4240.1409164974002</v>
+        <v>-4240.1449410483501</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.25">
@@ -14511,7 +14036,7 @@
         <v>851.5</v>
       </c>
       <c r="B1705">
-        <v>-4246.74661268416</v>
+        <v>-4246.7510166882003</v>
       </c>
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
@@ -14519,7 +14044,7 @@
         <v>852</v>
       </c>
       <c r="B1706">
-        <v>-4253.3504978925703</v>
+        <v>-4253.3552953114604</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
@@ -14527,7 +14052,7 @@
         <v>852.5</v>
       </c>
       <c r="B1707">
-        <v>-4259.9526760507697</v>
+        <v>-4259.9578799657302</v>
       </c>
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
@@ -14535,7 +14060,7 @@
         <v>853</v>
       </c>
       <c r="B1708">
-        <v>-4266.5532461990397</v>
+        <v>-4266.5588687944501</v>
       </c>
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
@@ -14543,7 +14068,7 @@
         <v>853.5</v>
       </c>
       <c r="B1709">
-        <v>-4273.1523027308403</v>
+        <v>-4273.15835528149</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
@@ -14551,7 +14076,7 @@
         <v>854</v>
       </c>
       <c r="B1710">
-        <v>-4279.7499356210001</v>
+        <v>-4279.7564284828804</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
@@ -14559,7 +14084,7 @@
         <v>854.5</v>
       </c>
       <c r="B1711">
-        <v>-4286.3462306419697</v>
+        <v>-4286.3531732462798</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
@@ -14567,7 +14092,7 @@
         <v>855</v>
       </c>
       <c r="B1712">
-        <v>-4292.9412695687397</v>
+        <v>-4292.9486704188803</v>
       </c>
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
@@ -14575,7 +14100,7 @@
         <v>855.5</v>
       </c>
       <c r="B1713">
-        <v>-4299.5351303730404</v>
+        <v>-4299.5429970444502</v>
       </c>
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
@@ -14583,7 +14108,7 @@
         <v>856</v>
       </c>
       <c r="B1714">
-        <v>-4305.0290945684801</v>
+        <v>-4305.0373549658898</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
@@ -14591,7 +14116,7 @@
         <v>856.5</v>
       </c>
       <c r="B1715">
-        <v>-4310.5157276013597</v>
+        <v>-4310.5243853340698</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
@@ -14599,7 +14124,7 @@
         <v>857</v>
       </c>
       <c r="B1716">
-        <v>-4316.00101210309</v>
+        <v>-4316.0100823805096</v>
       </c>
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
@@ -14607,7 +14132,7 @@
         <v>857.5</v>
       </c>
       <c r="B1717">
-        <v>-4321.4850550991796</v>
+        <v>-4321.4945519299999</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
@@ -14615,7 +14140,7 @@
         <v>858</v>
       </c>
       <c r="B1718">
-        <v>-4326.9679283813102</v>
+        <v>-4326.9778644689204</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
@@ -14623,7 +14148,7 @@
         <v>858.5</v>
       </c>
       <c r="B1719">
-        <v>-4332.4497002076696</v>
+        <v>-4332.4600869836304</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
@@ -14631,7 +14156,7 @@
         <v>859</v>
       </c>
       <c r="B1720">
-        <v>-4337.9304356370803</v>
+        <v>-4337.9412832962398</v>
       </c>
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
@@ -14639,7 +14164,7 @@
         <v>859.5</v>
       </c>
       <c r="B1721">
-        <v>-4343.4101966852204</v>
+        <v>-4343.4215142214198</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
@@ -14647,7 +14172,7 @@
         <v>860</v>
       </c>
       <c r="B1722">
-        <v>-4348.8890424721303</v>
+        <v>-4348.9008377141099</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
@@ -14655,7 +14180,7 @@
         <v>860.5</v>
       </c>
       <c r="B1723">
-        <v>-4354.3670293619998</v>
+        <v>-4354.3793090096196</v>
       </c>
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
@@ -14663,7 +14188,7 @@
         <v>861</v>
       </c>
       <c r="B1724">
-        <v>-4359.8442110958504</v>
+        <v>-4359.85698075647</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
@@ -14671,7 +14196,7 @@
         <v>861.5</v>
       </c>
       <c r="B1725">
-        <v>-4365.3206389175402</v>
+        <v>-4365.3339031424102</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
@@ -14679,7 +14204,7 @@
         <v>862</v>
       </c>
       <c r="B1726">
-        <v>-4370.7963616933102</v>
+        <v>-4370.8101240139704</v>
       </c>
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
@@ -14687,7 +14212,7 @@
         <v>862.5</v>
       </c>
       <c r="B1727">
-        <v>-4376.2714260253497</v>
+        <v>-4376.2856889898903</v>
       </c>
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
@@ -14695,7 +14220,7 @@
         <v>863</v>
       </c>
       <c r="B1728">
-        <v>-4381.7458763596196</v>
+        <v>-4381.7606415688397</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
@@ -14703,7 +14228,7 @@
         <v>863.5</v>
       </c>
       <c r="B1729">
-        <v>-4387.2197550883302</v>
+        <v>-4387.2350232315503</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
@@ -14711,7 +14236,7 @@
         <v>864</v>
       </c>
       <c r="B1730">
-        <v>-4392.6931026472703</v>
+        <v>-4392.7088735379202</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
@@ -14719,7 +14244,7 @@
         <v>864.5</v>
       </c>
       <c r="B1731">
-        <v>-4398.1659576083402</v>
+        <v>-4398.1822302191404</v>
       </c>
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.25">
@@ -14727,7 +14252,7 @@
         <v>865</v>
       </c>
       <c r="B1732">
-        <v>-4403.6383567674702</v>
+        <v>-4403.6551292652202</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
@@ -14735,7 +14260,7 @@
         <v>865.5</v>
       </c>
       <c r="B1733">
-        <v>-4409.1103352282298</v>
+        <v>-4409.1276050081497</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
@@ -14743,7 +14268,7 @@
         <v>866</v>
       </c>
       <c r="B1734">
-        <v>-4414.5819264813299</v>
+        <v>-4414.5996902008301</v>
       </c>
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
@@ -14751,7 +14276,7 @@
         <v>866.5</v>
       </c>
       <c r="B1735">
-        <v>-4420.0531624802097</v>
+        <v>-4420.0714160921998</v>
       </c>
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
@@ -14759,7 +14284,7 @@
         <v>867</v>
       </c>
       <c r="B1736">
-        <v>-4425.5240737129598</v>
+        <v>-4425.5428124985401</v>
       </c>
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
@@ -14767,7 +14292,7 @@
         <v>867.5</v>
       </c>
       <c r="B1737">
-        <v>-4430.9946892707603</v>
+        <v>-4431.01390787125</v>
       </c>
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
@@ -14775,7 +14300,7 @@
         <v>868</v>
       </c>
       <c r="B1738">
-        <v>-4436.4650369129404</v>
+        <v>-4436.4847293613702</v>
       </c>
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
@@ -14783,7 +14308,7 @@
         <v>868.5</v>
       </c>
       <c r="B1739">
-        <v>-4441.9351431289397</v>
+        <v>-4441.9553028808004</v>
       </c>
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
@@ -14791,7 +14316,7 @@
         <v>869</v>
       </c>
       <c r="B1740">
-        <v>-4447.4050331973003</v>
+        <v>-4447.4256531606397</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
@@ -14799,7 +14324,7 @@
         <v>869.5</v>
       </c>
       <c r="B1741">
-        <v>-4452.87473124178</v>
+        <v>-4452.8958038065703</v>
       </c>
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
@@ -14807,7 +14332,7 @@
         <v>870</v>
       </c>
       <c r="B1742">
-        <v>-4458.3442602847899</v>
+        <v>-4458.3657773516097</v>
       </c>
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
@@ -14815,7 +14340,7 @@
         <v>870.5</v>
       </c>
       <c r="B1743">
-        <v>-4463.8136422982898</v>
+        <v>-4463.8355953062201</v>
       </c>
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
@@ -14823,7 +14348,7 @@
         <v>871</v>
       </c>
       <c r="B1744">
-        <v>-4469.2828982522497</v>
+        <v>-4469.3052782061004</v>
       </c>
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.25">
@@ -14831,7 +14356,7 @@
         <v>871.5</v>
       </c>
       <c r="B1745">
-        <v>-4474.7520481608199</v>
+        <v>-4474.77484565753</v>
       </c>
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
@@ -14839,7 +14364,7 @@
         <v>872</v>
       </c>
       <c r="B1746">
-        <v>-4480.2211111262905</v>
+        <v>-4480.2443163806001</v>
       </c>
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
@@ -14847,7 +14372,7 @@
         <v>872.5</v>
       </c>
       <c r="B1747">
-        <v>-4485.6901053809597</v>
+        <v>-4485.7137082503696</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
@@ -14855,7 +14380,7 @@
         <v>873</v>
       </c>
       <c r="B1748">
-        <v>-4491.1590483271102</v>
+        <v>-4491.1830383359902</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
@@ -14863,7 +14388,7 @@
         <v>873.5</v>
       </c>
       <c r="B1749">
-        <v>-4496.6279565749901</v>
+        <v>-4496.65232293796</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
@@ -14871,7 +14396,7 @@
         <v>874</v>
       </c>
       <c r="B1750">
-        <v>-4502.0968459790802</v>
+        <v>-4502.1215776236804</v>
       </c>
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
@@ -14879,7 +14404,7 @@
         <v>874.5</v>
       </c>
       <c r="B1751">
-        <v>-4507.5657316726601</v>
+        <v>-4507.5908172611698</v>
       </c>
     </row>
     <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
@@ -14887,7 +14412,7 @@
         <v>875</v>
       </c>
       <c r="B1752">
-        <v>-4513.0346281006996</v>
+        <v>-4513.0600560512903</v>
       </c>
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.25">
@@ -14895,7 +14420,7 @@
         <v>875.5</v>
       </c>
       <c r="B1753">
-        <v>-4518.5035490513201</v>
+        <v>-4518.5293075583804</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
@@ -14903,7 +14428,7 @@
         <v>876</v>
       </c>
       <c r="B1754">
-        <v>-4523.9725076856803</v>
+        <v>-4523.9985847394901</v>
       </c>
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.25">
@@ -14911,7 +14436,7 @@
         <v>876.5</v>
       </c>
       <c r="B1755">
-        <v>-4529.4415165665396</v>
+        <v>-4529.46789997214</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
@@ -14919,7 +14444,7 @@
         <v>877</v>
       </c>
       <c r="B1756">
-        <v>-4534.9105876854901</v>
+        <v>-4534.93726508082</v>
       </c>
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.25">
@@ -14927,7 +14452,7 @@
         <v>877.5</v>
       </c>
       <c r="B1757">
-        <v>-4540.3797324889001</v>
+        <v>-4540.4066913623101</v>
       </c>
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.25">
@@ -14935,7 +14460,7 @@
         <v>878</v>
       </c>
       <c r="B1758">
-        <v>-4545.8489619026896</v>
+        <v>-4545.8761896096503</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.25">
@@ -14943,7 +14468,7 @@
         <v>878.5</v>
       </c>
       <c r="B1759">
-        <v>-4551.3182863559196</v>
+        <v>-4551.3457701351299</v>
       </c>
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.25">
@@ -14951,7 +14476,7 @@
         <v>879</v>
       </c>
       <c r="B1760">
-        <v>-4556.7877158033798</v>
+        <v>-4556.8154427920999</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.25">
@@ -14959,7 +14484,7 @@
         <v>879.5</v>
       </c>
       <c r="B1761">
-        <v>-4562.2572597470098</v>
+        <v>-4562.2852169958296</v>
       </c>
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.25">
@@ -14967,7 +14492,7 @@
         <v>880</v>
       </c>
       <c r="B1762">
-        <v>-4567.7269272564899</v>
+        <v>-4567.7551017433498</v>
       </c>
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.25">
@@ -14975,7 +14500,7 @@
         <v>880.5</v>
       </c>
       <c r="B1763">
-        <v>-4573.19672698873</v>
+        <v>-4573.2251056324203</v>
       </c>
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.25">
@@ -14983,7 +14508,7 @@
         <v>881</v>
       </c>
       <c r="B1764">
-        <v>-4578.6666672065903</v>
+        <v>-4578.69523687949</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.25">
@@ -14991,7 +14516,7 @@
         <v>881.5</v>
       </c>
       <c r="B1765">
-        <v>-4584.1367557966996</v>
+        <v>-4584.1655033370098</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.25">
@@ -14999,7 +14524,7 @@
         <v>882</v>
       </c>
       <c r="B1766">
-        <v>-4589.6070002864199</v>
+        <v>-4589.6359125097797</v>
       </c>
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
@@ -15007,7 +14532,7 @@
         <v>882.5</v>
       </c>
       <c r="B1767">
-        <v>-4595.0774078601298</v>
+        <v>-4595.1064715706298</v>
       </c>
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
@@ -15015,7 +14540,7 @@
         <v>883</v>
       </c>
       <c r="B1768">
-        <v>-4600.5479853746901</v>
+        <v>-4600.5771873753101</v>
       </c>
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.25">
@@ -15023,7 +14548,7 @@
         <v>883.5</v>
       </c>
       <c r="B1769">
-        <v>-4606.0187393742199</v>
+        <v>-4606.0480664767801</v>
       </c>
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.25">
@@ -15031,7 +14556,7 @@
         <v>884</v>
       </c>
       <c r="B1770">
-        <v>-4611.4896761042301</v>
+        <v>-4611.5191151387698</v>
       </c>
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.25">
@@ -15039,7 +14564,7 @@
         <v>884.5</v>
       </c>
       <c r="B1771">
-        <v>-4616.9608015250797</v>
+        <v>-4616.9903393487102</v>
       </c>
     </row>
     <row r="1772" spans="1:2" x14ac:dyDescent="0.25">
@@ -15047,7 +14572,7 @@
         <v>885</v>
       </c>
       <c r="B1772">
-        <v>-4622.4321213248704</v>
+        <v>-4622.4617448301296</v>
       </c>
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.25">
@@ -15055,7 +14580,7 @@
         <v>885.5</v>
       </c>
       <c r="B1773">
-        <v>-4627.9036409316996</v>
+        <v>-4627.93333705446</v>
       </c>
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.25">
@@ -15063,7 +14588,7 @@
         <v>886</v>
       </c>
       <c r="B1774">
-        <v>-4633.3753655253804</v>
+        <v>-4633.40512125224</v>
       </c>
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.25">
@@ -15071,7 +14596,7 @@
         <v>886.5</v>
       </c>
       <c r="B1775">
-        <v>-4638.8473000486802</v>
+        <v>-4638.8771024238904</v>
       </c>
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
@@ -15079,7 +14604,7 @@
         <v>887</v>
       </c>
       <c r="B1776">
-        <v>-4644.31944921796</v>
+        <v>-4644.3492853499802</v>
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
@@ -15087,7 +14612,7 @@
         <v>887.5</v>
       </c>
       <c r="B1777">
-        <v>-4649.7918175334198</v>
+        <v>-4649.8216746009603</v>
       </c>
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.25">
@@ -15095,7 +14620,7 @@
         <v>888</v>
       </c>
       <c r="B1778">
-        <v>-4654.1698909377501</v>
+        <v>-4654.1997545574304</v>
       </c>
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.25">
@@ -15103,7 +14628,7 @@
         <v>888.5</v>
       </c>
       <c r="B1779">
-        <v>-4658.5428646547298</v>
+        <v>-4658.5727251763401</v>
       </c>
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.25">
@@ -15111,7 +14636,7 @@
         <v>889</v>
       </c>
       <c r="B1780">
-        <v>-4662.91557677336</v>
+        <v>-4662.94544650021</v>
       </c>
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.25">
@@ -15119,7 +14644,7 @@
         <v>889.5</v>
       </c>
       <c r="B1781">
-        <v>-4667.2880694492897</v>
+        <v>-4667.3179594838102</v>
       </c>
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.25">
@@ -15127,7 +14652,7 @@
         <v>890</v>
       </c>
       <c r="B1782">
-        <v>-4671.6603626573997</v>
+        <v>-4671.6902827717204</v>
       </c>
     </row>
     <row r="1783" spans="1:2" x14ac:dyDescent="0.25">
@@ -15135,7 +14660,7 @@
         <v>890.5</v>
       </c>
       <c r="B1783">
-        <v>-4676.0324753325403</v>
+        <v>-4676.0624340415598</v>
       </c>
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.25">
@@ -15143,7 +14668,7 @@
         <v>891</v>
       </c>
       <c r="B1784">
-        <v>-4676.0324753325403</v>
+        <v>-4676.0624340415598</v>
       </c>
     </row>
     <row r="1785" spans="1:2" x14ac:dyDescent="0.25">
@@ -15151,7 +14676,7 @@
         <v>891.5</v>
       </c>
       <c r="B1785">
-        <v>-4658.6293225081799</v>
+        <v>-4658.6590679254696</v>
       </c>
     </row>
     <row r="1786" spans="1:2" x14ac:dyDescent="0.25">
@@ -15159,7 +14684,7 @@
         <v>892</v>
       </c>
       <c r="B1786">
-        <v>-4589.2853581839299</v>
+        <v>-4589.3126398009399</v>
       </c>
     </row>
     <row r="1787" spans="1:2" x14ac:dyDescent="0.25">
@@ -15167,7 +14692,7 @@
         <v>892.5</v>
       </c>
       <c r="B1787">
-        <v>-4503.5726553013901</v>
+        <v>-4503.5884626662801</v>
       </c>
     </row>
     <row r="1788" spans="1:2" x14ac:dyDescent="0.25">
@@ -15175,7 +14700,7 @@
         <v>893</v>
       </c>
       <c r="B1788">
-        <v>-4464.1178731048003</v>
+        <v>-4464.1166377372901</v>
       </c>
     </row>
     <row r="1789" spans="1:2" x14ac:dyDescent="0.25">
@@ -15183,7 +14708,7 @@
         <v>893.5</v>
       </c>
       <c r="B1789">
-        <v>-4378.8842669006299</v>
+        <v>-4378.8181070009095</v>
       </c>
     </row>
     <row r="1790" spans="1:2" x14ac:dyDescent="0.25">
@@ -15191,7 +14716,7 @@
         <v>894</v>
       </c>
       <c r="B1790">
-        <v>-4287.9329976140498</v>
+        <v>-4287.7969035073902</v>
       </c>
     </row>
     <row r="1791" spans="1:2" x14ac:dyDescent="0.25">
@@ -15199,7 +14724,7 @@
         <v>894.5</v>
       </c>
       <c r="B1791">
-        <v>-4197.0304567869098</v>
+        <v>-4196.8079991350496</v>
       </c>
     </row>
     <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
@@ -15207,7 +14732,7 @@
         <v>895</v>
       </c>
       <c r="B1792">
-        <v>-4106.6345265659802</v>
+        <v>-4106.3151236822196</v>
       </c>
     </row>
     <row r="1793" spans="1:2" x14ac:dyDescent="0.25">
@@ -15215,7 +14740,7 @@
         <v>895.5</v>
       </c>
       <c r="B1793">
-        <v>-4017.6280016185701</v>
+        <v>-4017.2074035785099</v>
       </c>
     </row>
     <row r="1794" spans="1:2" x14ac:dyDescent="0.25">
@@ -15223,7 +14748,7 @@
         <v>896</v>
       </c>
       <c r="B1794">
-        <v>-3929.8961134753699</v>
+        <v>-3929.37442695352</v>
       </c>
     </row>
     <row r="1795" spans="1:2" x14ac:dyDescent="0.25">
@@ -15231,7 +14756,7 @@
         <v>896.5</v>
       </c>
       <c r="B1795">
-        <v>-3844.35595813082</v>
+        <v>-3843.7381460716801</v>
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
@@ -15239,7 +14764,7 @@
         <v>897</v>
       </c>
       <c r="B1796">
-        <v>-3760.88339401961</v>
+        <v>-3760.1765836295999</v>
       </c>
     </row>
     <row r="1797" spans="1:2" x14ac:dyDescent="0.25">
@@ -15247,7 +14772,7 @@
         <v>897.5</v>
       </c>
       <c r="B1797">
-        <v>-3750.4676262435501</v>
+        <v>-3749.7502508095099</v>
       </c>
     </row>
     <row r="1798" spans="1:2" x14ac:dyDescent="0.25">
@@ -15255,7 +14780,7 @@
         <v>898</v>
       </c>
       <c r="B1798">
-        <v>-3659.5540480377799</v>
+        <v>-3658.73597090466</v>
       </c>
     </row>
     <row r="1799" spans="1:2" x14ac:dyDescent="0.25">
@@ -15263,7 +14788,7 @@
         <v>898.5</v>
       </c>
       <c r="B1799">
-        <v>-3605.1058041860001</v>
+        <v>-3604.2390397914601</v>
       </c>
     </row>
     <row r="1800" spans="1:2" x14ac:dyDescent="0.25">
@@ -15271,7 +14796,7 @@
         <v>899</v>
       </c>
       <c r="B1800">
-        <v>-3566.4390426229502</v>
+        <v>-3565.5365222792698</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
@@ -15279,7 +14804,7 @@
         <v>899.5</v>
       </c>
       <c r="B1801">
-        <v>-3516.4900209163002</v>
+        <v>-3515.5421589843199</v>
       </c>
     </row>
     <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
@@ -15287,7 +14812,7 @@
         <v>900</v>
       </c>
       <c r="B1802">
-        <v>-3494.2032563338798</v>
+        <v>-3493.2365589290898</v>
       </c>
     </row>
     <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
@@ -15295,7 +14820,7 @@
         <v>900.5</v>
       </c>
       <c r="B1803">
-        <v>-3478.3163899554602</v>
+        <v>-3477.33604181801</v>
       </c>
     </row>
     <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
@@ -15303,7 +14828,7 @@
         <v>901</v>
       </c>
       <c r="B1804">
-        <v>-3489.31269836607</v>
+        <v>-3488.3415431153198</v>
       </c>
     </row>
     <row r="1805" spans="1:2" x14ac:dyDescent="0.25">
@@ -15311,7 +14836,7 @@
         <v>901.5</v>
       </c>
       <c r="B1805">
-        <v>-3499.5795967813301</v>
+        <v>-3498.61725009578</v>
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
@@ -15319,7 +14844,7 @@
         <v>902</v>
       </c>
       <c r="B1806">
-        <v>-3509.8702847312502</v>
+        <v>-3508.9164627398</v>
       </c>
     </row>
     <row r="1807" spans="1:2" x14ac:dyDescent="0.25">
@@ -15327,7 +14852,7 @@
         <v>902.5</v>
       </c>
       <c r="B1807">
-        <v>-3519.1583971516998</v>
+        <v>-3518.2120120262498</v>
       </c>
     </row>
     <row r="1808" spans="1:2" x14ac:dyDescent="0.25">
@@ -15335,7 +14860,7 @@
         <v>903</v>
       </c>
       <c r="B1808">
-        <v>-3528.46272881819</v>
+        <v>-3527.5235234628899</v>
       </c>
     </row>
     <row r="1809" spans="1:2" x14ac:dyDescent="0.25">
@@ -15343,7 +14868,7 @@
         <v>903.5</v>
       </c>
       <c r="B1809">
-        <v>-3537.7907067362198</v>
+        <v>-3536.8584553593701</v>
       </c>
     </row>
     <row r="1810" spans="1:2" x14ac:dyDescent="0.25">
@@ -15351,7 +14876,7 @@
         <v>904</v>
       </c>
       <c r="B1810">
-        <v>-3547.14144732965</v>
+        <v>-3546.2159302897799</v>
       </c>
     </row>
     <row r="1811" spans="1:2" x14ac:dyDescent="0.25">
@@ -15359,7 +14884,7 @@
         <v>904.5</v>
       </c>
       <c r="B1811">
-        <v>-3556.5140360176401</v>
+        <v>-3555.5950394257602</v>
       </c>
     </row>
     <row r="1812" spans="1:2" x14ac:dyDescent="0.25">
@@ -15367,7 +14892,7 @@
         <v>905</v>
       </c>
       <c r="B1812">
-        <v>-3565.9075946534799</v>
+        <v>-3564.9949103195499</v>
       </c>
     </row>
     <row r="1813" spans="1:2" x14ac:dyDescent="0.25">
@@ -15375,7 +14900,7 @@
         <v>905.5</v>
       </c>
       <c r="B1813">
-        <v>-3575.3212808911098</v>
+        <v>-3574.4147062634802</v>
       </c>
     </row>
     <row r="1814" spans="1:2" x14ac:dyDescent="0.25">
@@ -15383,7 +14908,7 @@
         <v>906</v>
       </c>
       <c r="B1814">
-        <v>-3583.7061751896799</v>
+        <v>-3582.8048563157099</v>
       </c>
     </row>
     <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
@@ -15391,7 +14916,7 @@
         <v>906.5</v>
       </c>
       <c r="B1815">
-        <v>-3592.0989321295001</v>
+        <v>-3591.20267587017</v>
       </c>
     </row>
     <row r="1816" spans="1:2" x14ac:dyDescent="0.25">
@@ -15399,7 +14924,7 @@
         <v>907</v>
       </c>
       <c r="B1816">
-        <v>-3600.5067531416698</v>
+        <v>-3599.6153927465598</v>
       </c>
     </row>
     <row r="1817" spans="1:2" x14ac:dyDescent="0.25">
@@ -15407,7 +14932,7 @@
         <v>907.5</v>
       </c>
       <c r="B1817">
-        <v>-3608.9290865093399</v>
+        <v>-3608.0424603731799</v>
       </c>
     </row>
     <row r="1818" spans="1:2" x14ac:dyDescent="0.25">
@@ -15415,7 +14940,7 @@
         <v>908</v>
       </c>
       <c r="B1818">
-        <v>-3617.3653473900899</v>
+        <v>-3616.4832986747901</v>
       </c>
     </row>
     <row r="1819" spans="1:2" x14ac:dyDescent="0.25">
@@ -15423,7 +14948,7 @@
         <v>908.5</v>
       </c>
       <c r="B1819">
-        <v>-3625.8149753355901</v>
+        <v>-3624.9373518693101</v>
       </c>
     </row>
     <row r="1820" spans="1:2" x14ac:dyDescent="0.25">
@@ -15431,7 +14956,7 @@
         <v>909</v>
       </c>
       <c r="B1820">
-        <v>-3634.2774337485098</v>
+        <v>-3633.4040879255599</v>
       </c>
     </row>
     <row r="1821" spans="1:2" x14ac:dyDescent="0.25">
@@ -15439,7 +14964,7 @@
         <v>909.5</v>
       </c>
       <c r="B1821">
-        <v>-3642.7522089232102</v>
+        <v>-3641.8829976022998</v>
       </c>
     </row>
     <row r="1822" spans="1:2" x14ac:dyDescent="0.25">
@@ -15447,7 +14972,7 @@
         <v>910</v>
       </c>
       <c r="B1822">
-        <v>-3651.2388091102598</v>
+        <v>-3650.3735935116902</v>
       </c>
     </row>
     <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
@@ -15455,7 +14980,7 @@
         <v>910.5</v>
       </c>
       <c r="B1823">
-        <v>-3659.73676360938</v>
+        <v>-3658.87540921151</v>
       </c>
     </row>
     <row r="1824" spans="1:2" x14ac:dyDescent="0.25">
@@ -15463,7 +14988,7 @@
         <v>911</v>
       </c>
       <c r="B1824">
-        <v>-3668.2456218914399</v>
+        <v>-3667.3879983269699</v>
       </c>
     </row>
     <row r="1825" spans="1:2" x14ac:dyDescent="0.25">
@@ -15471,7 +14996,7 @@
         <v>911.5</v>
       </c>
       <c r="B1825">
-        <v>-3675.70003639264</v>
+        <v>-3674.8455667803701</v>
       </c>
     </row>
     <row r="1826" spans="1:2" x14ac:dyDescent="0.25">
@@ -15479,7 +15004,7 @@
         <v>912</v>
       </c>
       <c r="B1826">
-        <v>-3683.1553049102099</v>
+        <v>-3682.3038650037902</v>
       </c>
     </row>
     <row r="1827" spans="1:2" x14ac:dyDescent="0.25">
@@ -15487,7 +15012,7 @@
         <v>912.5</v>
       </c>
       <c r="B1827">
-        <v>-3690.6183486731302</v>
+        <v>-3689.7698339428598</v>
       </c>
     </row>
     <row r="1828" spans="1:2" x14ac:dyDescent="0.25">
@@ -15495,7 +15020,7 @@
         <v>913</v>
       </c>
       <c r="B1828">
-        <v>-3698.0889083027901</v>
+        <v>-3697.2432177812998</v>
       </c>
     </row>
     <row r="1829" spans="1:2" x14ac:dyDescent="0.25">
@@ -15503,7 +15028,7 @@
         <v>913.5</v>
       </c>
       <c r="B1829">
-        <v>-3707.7031968962401</v>
+        <v>-3706.8610118880702</v>
       </c>
     </row>
     <row r="1830" spans="1:2" x14ac:dyDescent="0.25">
@@ -15511,7 +15036,7 @@
         <v>914</v>
       </c>
       <c r="B1830">
-        <v>-3717.3471532543899</v>
+        <v>-3716.5083936975798</v>
       </c>
     </row>
     <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
@@ -15519,7 +15044,7 @@
         <v>914.5</v>
       </c>
       <c r="B1831">
-        <v>-3727.00149717759</v>
+        <v>-3726.16604756781</v>
       </c>
     </row>
     <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
@@ -15527,7 +15052,7 @@
         <v>915</v>
       </c>
       <c r="B1832">
-        <v>-3736.6656689443798</v>
+        <v>-3735.8334167917101</v>
       </c>
     </row>
     <row r="1833" spans="1:2" x14ac:dyDescent="0.25">
@@ -15535,7 +15060,7 @@
         <v>915.5</v>
       </c>
       <c r="B1833">
-        <v>-3746.3392932913998</v>
+        <v>-3745.51012965277</v>
       </c>
     </row>
     <row r="1834" spans="1:2" x14ac:dyDescent="0.25">
@@ -15543,7 +15068,7 @@
         <v>916</v>
       </c>
       <c r="B1834">
-        <v>-3756.0220123536401</v>
+        <v>-3755.19583174433</v>
       </c>
     </row>
     <row r="1835" spans="1:2" x14ac:dyDescent="0.25">
@@ -15551,7 +15076,7 @@
         <v>916.5</v>
       </c>
       <c r="B1835">
-        <v>-3765.71348347712</v>
+        <v>-3764.8901837756498</v>
       </c>
     </row>
     <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
@@ -15559,7 +15084,7 @@
         <v>917</v>
       </c>
       <c r="B1836">
-        <v>-3775.4133785439599</v>
+        <v>-3774.5928608985801</v>
       </c>
     </row>
     <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
@@ -15567,7 +15092,7 @@
         <v>917.5</v>
       </c>
       <c r="B1837">
-        <v>-3785.1213833389502</v>
+        <v>-3784.3035520757999</v>
       </c>
     </row>
     <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
@@ -15575,7 +15100,7 @@
         <v>918</v>
       </c>
       <c r="B1838">
-        <v>-3794.8371969432901</v>
+        <v>-3794.0219594763398</v>
       </c>
     </row>
     <row r="1839" spans="1:2" x14ac:dyDescent="0.25">
@@ -15583,7 +15108,7 @@
         <v>918.5</v>
       </c>
       <c r="B1839">
-        <v>-3803.4801606865899</v>
+        <v>-3802.6671491838201</v>
       </c>
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
@@ -15591,7 +15116,7 @@
         <v>919</v>
       </c>
       <c r="B1840">
-        <v>-3812.11999327597</v>
+        <v>-3811.3091148410599</v>
       </c>
     </row>
     <row r="1841" spans="1:2" x14ac:dyDescent="0.25">
@@ -15599,7 +15124,7 @@
         <v>919.5</v>
       </c>
       <c r="B1841">
-        <v>-3820.7652072474598</v>
+        <v>-3819.9563866511398</v>
       </c>
     </row>
     <row r="1842" spans="1:2" x14ac:dyDescent="0.25">
@@ -15607,7 +15132,7 @@
         <v>920</v>
       </c>
       <c r="B1842">
-        <v>-3829.4156759658099</v>
+        <v>-3828.6088407105499</v>
       </c>
     </row>
     <row r="1843" spans="1:2" x14ac:dyDescent="0.25">
@@ -15615,7 +15140,7 @@
         <v>920.5</v>
       </c>
       <c r="B1843">
-        <v>-3838.07121056898</v>
+        <v>-3837.26629058857</v>
       </c>
     </row>
     <row r="1844" spans="1:2" x14ac:dyDescent="0.25">
@@ -15623,7 +15148,7 @@
         <v>921</v>
       </c>
       <c r="B1844">
-        <v>-3846.7316295744899</v>
+        <v>-3845.9285571566302</v>
       </c>
     </row>
     <row r="1845" spans="1:2" x14ac:dyDescent="0.25">
@@ -15631,7 +15156,7 @@
         <v>921.5</v>
       </c>
       <c r="B1845">
-        <v>-3855.3967591042001</v>
+        <v>-3854.5954688177299</v>
       </c>
     </row>
     <row r="1846" spans="1:2" x14ac:dyDescent="0.25">
@@ -15639,7 +15164,7 @@
         <v>922</v>
       </c>
       <c r="B1846">
-        <v>-3864.0664325575499</v>
+        <v>-3863.2668611815402</v>
       </c>
     </row>
     <row r="1847" spans="1:2" x14ac:dyDescent="0.25">
@@ -15647,7 +15172,7 @@
         <v>922.5</v>
       </c>
       <c r="B1847">
-        <v>-3872.7404902949202</v>
+        <v>-3871.9425767497701</v>
       </c>
     </row>
     <row r="1848" spans="1:2" x14ac:dyDescent="0.25">
@@ -15655,7 +15180,7 @@
         <v>923</v>
       </c>
       <c r="B1848">
-        <v>-3881.4187793353899</v>
+        <v>-3880.6224646156602</v>
       </c>
     </row>
     <row r="1849" spans="1:2" x14ac:dyDescent="0.25">
@@ -15663,7 +15188,7 @@
         <v>923.5</v>
       </c>
       <c r="B1849">
-        <v>-3890.1011530679498</v>
+        <v>-3889.30638017712</v>
       </c>
     </row>
     <row r="1850" spans="1:2" x14ac:dyDescent="0.25">
@@ -15671,7 +15196,7 @@
         <v>924</v>
       </c>
       <c r="B1850">
-        <v>-3898.7874709758298</v>
+        <v>-3897.9941848628</v>
       </c>
     </row>
     <row r="1851" spans="1:2" x14ac:dyDescent="0.25">
@@ -15679,7 +15204,7 @@
         <v>924.5</v>
       </c>
       <c r="B1851">
-        <v>-3907.4775983732202</v>
+        <v>-3906.6857458706399</v>
       </c>
     </row>
     <row r="1852" spans="1:2" x14ac:dyDescent="0.25">
@@ -15687,7 +15212,7 @@
         <v>925</v>
       </c>
       <c r="B1852">
-        <v>-3916.1714061538501</v>
+        <v>-3915.38093591811</v>
       </c>
     </row>
     <row r="1853" spans="1:2" x14ac:dyDescent="0.25">
@@ -15695,7 +15220,7 @@
         <v>925.5</v>
       </c>
       <c r="B1853">
-        <v>-3924.8687705509101</v>
+        <v>-3924.0796330038802</v>
       </c>
     </row>
     <row r="1854" spans="1:2" x14ac:dyDescent="0.25">
@@ -15703,7 +15228,7 @@
         <v>926</v>
       </c>
       <c r="B1854">
-        <v>-3933.5695729077602</v>
+        <v>-3932.7817201801599</v>
       </c>
     </row>
     <row r="1855" spans="1:2" x14ac:dyDescent="0.25">
@@ -15711,7 +15236,7 @@
         <v>926.5</v>
       </c>
       <c r="B1855">
-        <v>-3942.27369945893</v>
+        <v>-3941.48708533534</v>
       </c>
     </row>
     <row r="1856" spans="1:2" x14ac:dyDescent="0.25">
@@ -15719,7 +15244,7 @@
         <v>927</v>
       </c>
       <c r="B1856">
-        <v>-3950.9810411210101</v>
+        <v>-3950.1956209864502</v>
       </c>
     </row>
     <row r="1857" spans="1:2" x14ac:dyDescent="0.25">
@@ -15727,7 +15252,7 @@
         <v>927.5</v>
       </c>
       <c r="B1857">
-        <v>-3959.6914932928298</v>
+        <v>-3958.9072240809501</v>
       </c>
     </row>
     <row r="1858" spans="1:2" x14ac:dyDescent="0.25">
@@ -15735,7 +15260,7 @@
         <v>928</v>
       </c>
       <c r="B1858">
-        <v>-3967.3157728682099</v>
+        <v>-3966.5324743415699</v>
       </c>
     </row>
     <row r="1859" spans="1:2" x14ac:dyDescent="0.25">
@@ -15743,7 +15268,7 @@
         <v>928.5</v>
       </c>
       <c r="B1859">
-        <v>-3974.9339181649698</v>
+        <v>-3974.1515449358799</v>
       </c>
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
@@ -15751,7 +15276,7 @@
         <v>929</v>
       </c>
       <c r="B1860">
-        <v>-3982.5538010926598</v>
+        <v>-3981.7723188971299</v>
       </c>
     </row>
     <row r="1861" spans="1:2" x14ac:dyDescent="0.25">
@@ -15759,7 +15284,7 @@
         <v>929.5</v>
       </c>
       <c r="B1861">
-        <v>-3990.1754286621499</v>
+        <v>-3989.3948045904399</v>
       </c>
     </row>
     <row r="1862" spans="1:2" x14ac:dyDescent="0.25">
@@ -15767,7 +15292,7 @@
         <v>930</v>
       </c>
       <c r="B1862">
-        <v>-3997.7987521355199</v>
+        <v>-3997.0189544555401</v>
       </c>
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
@@ -15775,7 +15300,7 @@
         <v>930.5</v>
       </c>
       <c r="B1863">
-        <v>-4005.4237242542299</v>
+        <v>-4004.6447223700502</v>
       </c>
     </row>
     <row r="1864" spans="1:2" x14ac:dyDescent="0.25">
@@ -15783,7 +15308,7 @@
         <v>931</v>
       </c>
       <c r="B1864">
-        <v>-4013.0502995851498</v>
+        <v>-4012.2720639981999</v>
       </c>
     </row>
     <row r="1865" spans="1:2" x14ac:dyDescent="0.25">
@@ -15791,7 +15316,7 @@
         <v>931.5</v>
       </c>
       <c r="B1865">
-        <v>-4020.6784344517901</v>
+        <v>-4019.9009367233498</v>
       </c>
     </row>
     <row r="1866" spans="1:2" x14ac:dyDescent="0.25">
@@ -15799,7 +15324,7 @@
         <v>932</v>
       </c>
       <c r="B1866">
-        <v>-4028.3080868653401</v>
+        <v>-4027.5312995802101</v>
       </c>
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.25">
@@ -15807,7 +15332,7 @@
         <v>932.5</v>
       </c>
       <c r="B1867">
-        <v>-4035.9392164586002</v>
+        <v>-4035.1631131899398</v>
       </c>
     </row>
     <row r="1868" spans="1:2" x14ac:dyDescent="0.25">
@@ -15815,7 +15340,7 @@
         <v>933</v>
       </c>
       <c r="B1868">
-        <v>-4043.5717844225101</v>
+        <v>-4042.7963396978498</v>
       </c>
     </row>
     <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
@@ -15823,7 +15348,7 @@
         <v>933.5</v>
       </c>
       <c r="B1869">
-        <v>-4051.2058219648402</v>
+        <v>-4050.43099774249</v>
       </c>
     </row>
     <row r="1870" spans="1:2" x14ac:dyDescent="0.25">
@@ -15831,7 +15356,7 @@
         <v>934</v>
       </c>
       <c r="B1870">
-        <v>-4058.8413580802899</v>
+        <v>-4058.0671297787799</v>
       </c>
     </row>
     <row r="1871" spans="1:2" x14ac:dyDescent="0.25">
@@ -15839,7 +15364,7 @@
         <v>934.5</v>
       </c>
       <c r="B1871">
-        <v>-4066.4783589610502</v>
+        <v>-4065.7047010230599</v>
       </c>
     </row>
     <row r="1872" spans="1:2" x14ac:dyDescent="0.25">
@@ -15847,7 +15372,7 @@
         <v>935</v>
       </c>
       <c r="B1872">
-        <v>-4074.1167916464001</v>
+        <v>-4073.3436775790601</v>
       </c>
     </row>
     <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
@@ -15855,7 +15380,7 @@
         <v>935.5</v>
       </c>
       <c r="B1873">
-        <v>-4081.7566244426398</v>
+        <v>-4080.9840269545102</v>
       </c>
     </row>
     <row r="1874" spans="1:2" x14ac:dyDescent="0.25">
@@ -15863,7 +15388,7 @@
         <v>936</v>
       </c>
       <c r="B1874">
-        <v>-4089.3978268773299</v>
+        <v>-4088.6257180061202</v>
       </c>
     </row>
     <row r="1875" spans="1:2" x14ac:dyDescent="0.25">
@@ -15871,7 +15396,7 @@
         <v>936.5</v>
       </c>
       <c r="B1875">
-        <v>-4097.0403696521198</v>
+        <v>-4096.2687208826501</v>
       </c>
     </row>
     <row r="1876" spans="1:2" x14ac:dyDescent="0.25">
@@ -15879,7 +15404,7 @@
         <v>937</v>
       </c>
       <c r="B1876">
-        <v>-4104.6842245973903</v>
+        <v>-4103.9130069705498</v>
       </c>
     </row>
     <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
@@ -15887,7 +15412,7 @@
         <v>937.5</v>
       </c>
       <c r="B1877">
-        <v>-4112.3293646287502</v>
+        <v>-4111.5585488417601</v>
       </c>
     </row>
     <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
@@ -15895,7 +15420,7 @@
         <v>938</v>
       </c>
       <c r="B1878">
-        <v>-4119.9757637051898</v>
+        <v>-4119.2053202038796</v>
       </c>
     </row>
     <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
@@ -15903,7 +15428,7 @@
         <v>938.5</v>
       </c>
       <c r="B1879">
-        <v>-4126.5308777769696</v>
+        <v>-4125.7607279026197</v>
       </c>
     </row>
     <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
@@ -15911,7 +15436,7 @@
         <v>939</v>
       </c>
       <c r="B1880">
-        <v>-4133.0794242984502</v>
+        <v>-4132.3095361011301</v>
       </c>
     </row>
     <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
@@ -15919,7 +15444,7 @@
         <v>939.5</v>
       </c>
       <c r="B1881">
-        <v>-4139.6283401246001</v>
+        <v>-4138.8586921370998</v>
       </c>
     </row>
     <row r="1882" spans="1:2" x14ac:dyDescent="0.25">
@@ -15927,7 +15452,7 @@
         <v>940</v>
       </c>
       <c r="B1882">
-        <v>-4146.1776742217198</v>
+        <v>-4145.4082454146001</v>
       </c>
     </row>
     <row r="1883" spans="1:2" x14ac:dyDescent="0.25">
@@ -15935,7 +15460,7 @@
         <v>940.5</v>
       </c>
       <c r="B1883">
-        <v>-4152.7274311912297</v>
+        <v>-4151.9582008593397</v>
       </c>
     </row>
     <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
@@ -15943,7 +15468,7 @@
         <v>941</v>
       </c>
       <c r="B1884">
-        <v>-4159.2776150129102</v>
+        <v>-4158.5085627874396</v>
       </c>
     </row>
     <row r="1885" spans="1:2" x14ac:dyDescent="0.25">
@@ -15951,7 +15476,7 @@
         <v>941.5</v>
       </c>
       <c r="B1885">
-        <v>-4165.8282293474604</v>
+        <v>-4165.0593352067599</v>
       </c>
     </row>
     <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
@@ -15959,7 +15484,7 @@
         <v>942</v>
       </c>
       <c r="B1886">
-        <v>-4172.3792775597904</v>
+        <v>-4171.6105218381599</v>
       </c>
     </row>
     <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
@@ -15967,7 +15492,7 @@
         <v>942.5</v>
       </c>
       <c r="B1887">
-        <v>-4178.93076273927</v>
+        <v>-4178.1621261337204</v>
       </c>
     </row>
     <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
@@ -15975,7 +15500,7 @@
         <v>943</v>
       </c>
       <c r="B1888">
-        <v>-4185.4826877185997</v>
+        <v>-4184.7141512939197</v>
       </c>
     </row>
     <row r="1889" spans="1:2" x14ac:dyDescent="0.25">
@@ -15983,7 +15508,7 @@
         <v>943.5</v>
       </c>
       <c r="B1889">
-        <v>-4192.03505509149</v>
+        <v>-4191.2666002836704</v>
       </c>
     </row>
     <row r="1890" spans="1:2" x14ac:dyDescent="0.25">
@@ -15991,7 +15516,7 @@
         <v>944</v>
       </c>
       <c r="B1890">
-        <v>-4198.5878672293302</v>
+        <v>-4197.8194758475402</v>
       </c>
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.25">
@@ -15999,7 +15524,7 @@
         <v>944.5</v>
       </c>
       <c r="B1891">
-        <v>-4205.1411262966003</v>
+        <v>-4204.3727805238696</v>
       </c>
     </row>
     <row r="1892" spans="1:2" x14ac:dyDescent="0.25">
@@ -16007,7 +15532,7 @@
         <v>945</v>
       </c>
       <c r="B1892">
-        <v>-4211.6948342654796</v>
+        <v>-4210.9265166582099</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
@@ -16015,7 +15540,7 @@
         <v>945.5</v>
       </c>
       <c r="B1893">
-        <v>-4218.2489929294097</v>
+        <v>-4217.4806864157799</v>
       </c>
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
@@ -16023,7 +15548,7 @@
         <v>946</v>
       </c>
       <c r="B1894">
-        <v>-4224.8036039158096</v>
+        <v>-4224.0352917933096</v>
       </c>
     </row>
     <row r="1895" spans="1:2" x14ac:dyDescent="0.25">
@@ -16031,7 +15556,7 @@
         <v>946.5</v>
       </c>
       <c r="B1895">
-        <v>-4231.3586686979797</v>
+        <v>-4230.5903346300202</v>
       </c>
     </row>
     <row r="1896" spans="1:2" x14ac:dyDescent="0.25">
@@ -16039,7 +15564,7 @@
         <v>947</v>
       </c>
       <c r="B1896">
-        <v>-4237.9141886062498</v>
+        <v>-4237.1458166180701</v>
       </c>
     </row>
     <row r="1897" spans="1:2" x14ac:dyDescent="0.25">
@@ -16047,7 +15572,7 @@
         <v>947.5</v>
       </c>
       <c r="B1897">
-        <v>-4244.4701648383298</v>
+        <v>-4243.7017393122296</v>
       </c>
     </row>
     <row r="1898" spans="1:2" x14ac:dyDescent="0.25">
@@ -16055,7 +15580,7 @@
         <v>948</v>
       </c>
       <c r="B1898">
-        <v>-4251.0265984690895</v>
+        <v>-4250.2581041390804</v>
       </c>
     </row>
     <row r="1899" spans="1:2" x14ac:dyDescent="0.25">
@@ -16063,7 +15588,7 @@
         <v>948.5</v>
       </c>
       <c r="B1899">
-        <v>-4257.5834904596304</v>
+        <v>-4256.8149124055299</v>
       </c>
     </row>
     <row r="1900" spans="1:2" x14ac:dyDescent="0.25">
@@ -16071,7 +15596,7 @@
         <v>949</v>
       </c>
       <c r="B1900">
-        <v>-4264.1408416657696</v>
+        <v>-4263.3721653069297</v>
       </c>
     </row>
     <row r="1901" spans="1:2" x14ac:dyDescent="0.25">
@@ -16079,7 +15604,7 @@
         <v>949.5</v>
       </c>
       <c r="B1901">
-        <v>-4270.6986528459602</v>
+        <v>-4269.9298639345498</v>
       </c>
     </row>
     <row r="1902" spans="1:2" x14ac:dyDescent="0.25">
@@ -16087,7 +15612,7 @@
         <v>950</v>
       </c>
       <c r="B1902">
-        <v>-4277.2569246687299</v>
+        <v>-4276.4880092827098</v>
       </c>
     </row>
     <row r="1903" spans="1:2" x14ac:dyDescent="0.25">
@@ -16095,7 +15620,7 @@
         <v>950.5</v>
       </c>
       <c r="B1903">
-        <v>-4283.8156577195596</v>
+        <v>-4283.0466022553901</v>
       </c>
     </row>
     <row r="1904" spans="1:2" x14ac:dyDescent="0.25">
@@ -16103,7 +15628,7 @@
         <v>951</v>
       </c>
       <c r="B1904">
-        <v>-4289.2816533760397</v>
+        <v>-4288.5124701029499</v>
       </c>
     </row>
     <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
@@ -16111,7 +15636,7 @@
         <v>951.5</v>
       </c>
       <c r="B1905">
-        <v>-4294.7415989921101</v>
+        <v>-4293.9722735400901</v>
       </c>
     </row>
     <row r="1906" spans="1:2" x14ac:dyDescent="0.25">
@@ -16119,7 +15644,7 @@
         <v>952</v>
       </c>
       <c r="B1906">
-        <v>-4300.2013878510397</v>
+        <v>-4299.4319201567496</v>
       </c>
     </row>
     <row r="1907" spans="1:2" x14ac:dyDescent="0.25">
@@ -16127,7 +15652,7 @@
         <v>952.5</v>
       </c>
       <c r="B1907">
-        <v>-4305.6610725614901</v>
+        <v>-4304.8914625700099</v>
       </c>
     </row>
     <row r="1908" spans="1:2" x14ac:dyDescent="0.25">
@@ -16135,7 +15660,7 @@
         <v>953</v>
       </c>
       <c r="B1908">
-        <v>-4311.1206731806797</v>
+        <v>-4310.3509206867602</v>
       </c>
     </row>
     <row r="1909" spans="1:2" x14ac:dyDescent="0.25">
@@ -16143,7 +15668,7 @@
         <v>953.5</v>
       </c>
       <c r="B1909">
-        <v>-4316.5802086288404</v>
+        <v>-4315.8103132746201</v>
       </c>
     </row>
     <row r="1910" spans="1:2" x14ac:dyDescent="0.25">
@@ -16151,7 +15676,7 @@
         <v>954</v>
       </c>
       <c r="B1910">
-        <v>-4322.0396969067297</v>
+        <v>-4321.2696581812097</v>
       </c>
     </row>
     <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
@@ -16159,7 +15684,7 @@
         <v>954.5</v>
       </c>
       <c r="B1911">
-        <v>-4327.4991551422399</v>
+        <v>-4326.72897238117</v>
       </c>
     </row>
     <row r="1912" spans="1:2" x14ac:dyDescent="0.25">
@@ -16167,7 +15692,7 @@
         <v>955</v>
       </c>
       <c r="B1912">
-        <v>-4332.95859963361</v>
+        <v>-4332.1882720198701</v>
       </c>
     </row>
     <row r="1913" spans="1:2" x14ac:dyDescent="0.25">
@@ -16175,7 +15700,7 @@
         <v>955.5</v>
       </c>
       <c r="B1913">
-        <v>-4338.4180458905803</v>
+        <v>-4337.64757245486</v>
       </c>
     </row>
     <row r="1914" spans="1:2" x14ac:dyDescent="0.25">
@@ -16183,7 +15708,7 @@
         <v>956</v>
       </c>
       <c r="B1914">
-        <v>-4343.8775086732503</v>
+        <v>-4343.1068882951404</v>
       </c>
     </row>
     <row r="1915" spans="1:2" x14ac:dyDescent="0.25">
@@ -16191,7 +15716,7 @@
         <v>956.5</v>
       </c>
       <c r="B1915">
-        <v>-4349.3370020291504</v>
+        <v>-4348.5662334385397</v>
       </c>
     </row>
     <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
@@ -16199,7 +15724,7 @@
         <v>957</v>
       </c>
       <c r="B1916">
-        <v>-4354.7965393282602</v>
+        <v>-4354.02562110702</v>
       </c>
     </row>
     <row r="1917" spans="1:2" x14ac:dyDescent="0.25">
@@ -16207,7 +15732,7 @@
         <v>957.5</v>
       </c>
       <c r="B1917">
-        <v>-4360.2561332963196</v>
+        <v>-4359.48506388032</v>
       </c>
     </row>
     <row r="1918" spans="1:2" x14ac:dyDescent="0.25">
@@ -16215,7 +15740,7 @@
         <v>958</v>
       </c>
       <c r="B1918">
-        <v>-4365.7157960465001</v>
+        <v>-4364.9445737277802</v>
       </c>
     </row>
     <row r="1919" spans="1:2" x14ac:dyDescent="0.25">
@@ -16223,7 +15748,7 @@
         <v>958.5</v>
       </c>
       <c r="B1919">
-        <v>-4371.1755391093802</v>
+        <v>-4370.4041620386097</v>
       </c>
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.25">
@@ -16231,7 +15756,7 @@
         <v>959</v>
       </c>
       <c r="B1920">
-        <v>-4376.6353734614304</v>
+        <v>-4375.8638396505703</v>
       </c>
     </row>
     <row r="1921" spans="1:2" x14ac:dyDescent="0.25">
@@ -16239,7 +15764,7 @@
         <v>959.5</v>
       </c>
       <c r="B1921">
-        <v>-4382.0953095521299</v>
+        <v>-4381.3236168772401</v>
       </c>
     </row>
     <row r="1922" spans="1:2" x14ac:dyDescent="0.25">
@@ -16247,7 +15772,7 @@
         <v>960</v>
       </c>
       <c r="B1922">
-        <v>-4387.5553573296302</v>
+        <v>-4386.7835035338603</v>
       </c>
     </row>
     <row r="1923" spans="1:2" x14ac:dyDescent="0.25">
@@ -16255,7 +15780,7 @@
         <v>960.5</v>
       </c>
       <c r="B1923">
-        <v>-4393.0155262651997</v>
+        <v>-4392.2435089619003</v>
       </c>
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.25">
@@ -16263,7 +15788,7 @@
         <v>961</v>
       </c>
       <c r="B1924">
-        <v>-4398.4758253763903</v>
+        <v>-4397.70364205237</v>
       </c>
     </row>
     <row r="1925" spans="1:2" x14ac:dyDescent="0.25">
@@ -16271,7 +15796,7 @@
         <v>961.5</v>
       </c>
       <c r="B1925">
-        <v>-4403.9362632490802</v>
+        <v>-4403.1639112679504</v>
       </c>
     </row>
     <row r="1926" spans="1:2" x14ac:dyDescent="0.25">
@@ -16279,7 +15804,7 @@
         <v>962</v>
       </c>
       <c r="B1926">
-        <v>-4409.3968480584399</v>
+        <v>-4408.6243246640297</v>
       </c>
     </row>
     <row r="1927" spans="1:2" x14ac:dyDescent="0.25">
@@ -16287,7 +15812,7 @@
         <v>962.5</v>
       </c>
       <c r="B1927">
-        <v>-4414.85758758876</v>
+        <v>-4414.0848899086604</v>
       </c>
     </row>
     <row r="1928" spans="1:2" x14ac:dyDescent="0.25">
@@ -16295,7 +15820,7 @@
         <v>963</v>
       </c>
       <c r="B1928">
-        <v>-4420.3184892524096</v>
+        <v>-4419.5456143014999</v>
       </c>
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.25">
@@ -16303,7 +15828,7 @@
         <v>963.5</v>
       </c>
       <c r="B1929">
-        <v>-4425.7795601077996</v>
+        <v>-4425.0065047918597</v>
       </c>
     </row>
     <row r="1930" spans="1:2" x14ac:dyDescent="0.25">
@@ -16311,7 +15836,7 @@
         <v>964</v>
       </c>
       <c r="B1930">
-        <v>-4431.2408068764098</v>
+        <v>-4430.46756799579</v>
       </c>
     </row>
     <row r="1931" spans="1:2" x14ac:dyDescent="0.25">
@@ -16319,7 +15844,7 @@
         <v>964.5</v>
       </c>
       <c r="B1931">
-        <v>-4436.7022359590801</v>
+        <v>-4435.9288102123301</v>
       </c>
     </row>
     <row r="1932" spans="1:2" x14ac:dyDescent="0.25">
@@ -16327,7 +15852,7 @@
         <v>965</v>
       </c>
       <c r="B1932">
-        <v>-4442.1638534514304</v>
+        <v>-4441.3902374389399</v>
       </c>
     </row>
     <row r="1933" spans="1:2" x14ac:dyDescent="0.25">
@@ -16335,7 +15860,7 @@
         <v>965.5</v>
       </c>
       <c r="B1933">
-        <v>-4447.6256651584899</v>
+        <v>-4446.8518553862104</v>
       </c>
     </row>
     <row r="1934" spans="1:2" x14ac:dyDescent="0.25">
@@ -16343,7 +15868,7 @@
         <v>966</v>
       </c>
       <c r="B1934">
-        <v>-4453.0876766087003</v>
+        <v>-4452.3136694917703</v>
       </c>
     </row>
     <row r="1935" spans="1:2" x14ac:dyDescent="0.25">
@@ -16351,7 +15876,7 @@
         <v>966.5</v>
       </c>
       <c r="B1935">
-        <v>-4458.5498930671702</v>
+        <v>-4457.7756849335401</v>
       </c>
     </row>
     <row r="1936" spans="1:2" x14ac:dyDescent="0.25">
@@ -16359,7 +15884,7 @@
         <v>967</v>
       </c>
       <c r="B1936">
-        <v>-4464.0123195482602</v>
+        <v>-4463.2379066423</v>
       </c>
     </row>
     <row r="1937" spans="1:2" x14ac:dyDescent="0.25">
@@ -16367,7 +15892,7 @@
         <v>967.5</v>
       </c>
       <c r="B1937">
-        <v>-4469.4749608276297</v>
+        <v>-4468.7003393137202</v>
       </c>
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
@@ -16375,7 +15900,7 @@
         <v>968</v>
       </c>
       <c r="B1938">
-        <v>-4476.0303935787897</v>
+        <v>-4475.2555170408205</v>
       </c>
     </row>
     <row r="1939" spans="1:2" x14ac:dyDescent="0.25">
@@ -16383,7 +15908,7 @@
         <v>968.5</v>
       </c>
       <c r="B1939">
-        <v>-4485.8757347414403</v>
+        <v>-4485.1004733652098</v>
       </c>
     </row>
     <row r="1940" spans="1:2" x14ac:dyDescent="0.25">
@@ -16391,7 +15916,7 @@
         <v>969</v>
       </c>
       <c r="B1940">
-        <v>-4506.7385255811996</v>
+        <v>-4505.9623940224701</v>
       </c>
     </row>
     <row r="1941" spans="1:2" x14ac:dyDescent="0.25">
@@ -16399,7 +15924,7 @@
         <v>969.5</v>
       </c>
       <c r="B1941">
-        <v>-4516.7466236103901</v>
+        <v>-4515.9699785728999</v>
       </c>
     </row>
     <row r="1942" spans="1:2" x14ac:dyDescent="0.25">
@@ -16407,7 +15932,7 @@
         <v>970</v>
       </c>
       <c r="B1942">
-        <v>-4526.6482766232502</v>
+        <v>-4525.8705650686497</v>
       </c>
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.25">
@@ -16415,7 +15940,7 @@
         <v>970.5</v>
       </c>
       <c r="B1943">
-        <v>-4535.4519039439601</v>
+        <v>-4534.6731340766701</v>
       </c>
     </row>
     <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
@@ -16423,7 +15948,7 @@
         <v>971</v>
       </c>
       <c r="B1944">
-        <v>-4544.2478582620397</v>
+        <v>-4543.4679305279296</v>
       </c>
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.25">
@@ -16431,7 +15956,7 @@
         <v>971.5</v>
       </c>
       <c r="B1945">
-        <v>-4551.9460559692598</v>
+        <v>-4551.1650647840697</v>
       </c>
     </row>
     <row r="1946" spans="1:2" x14ac:dyDescent="0.25">
@@ -16439,7 +15964,7 @@
         <v>972</v>
       </c>
       <c r="B1946">
-        <v>-4559.6366662355204</v>
+        <v>-4558.8545634167804</v>
       </c>
     </row>
     <row r="1947" spans="1:2" x14ac:dyDescent="0.25">
@@ -16447,7 +15972,7 @@
         <v>972.5</v>
       </c>
       <c r="B1947">
-        <v>-4567.3281692979699</v>
+        <v>-4566.5449424291</v>
       </c>
     </row>
     <row r="1948" spans="1:2" x14ac:dyDescent="0.25">
@@ -16455,7 +15980,7 @@
         <v>973</v>
       </c>
       <c r="B1948">
-        <v>-4575.0206157961002</v>
+        <v>-4574.2362536054097</v>
       </c>
     </row>
     <row r="1949" spans="1:2" x14ac:dyDescent="0.25">
@@ -16463,7 +15988,7 @@
         <v>973.5</v>
       </c>
       <c r="B1949">
-        <v>-4582.7139913992296</v>
+        <v>-4581.9284831753703</v>
       </c>
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.25">
@@ -16471,7 +15996,7 @@
         <v>974</v>
       </c>
       <c r="B1950">
-        <v>-4589.3090975724499</v>
+        <v>-4588.5225983034397</v>
       </c>
     </row>
     <row r="1951" spans="1:2" x14ac:dyDescent="0.25">
@@ -16479,7 +16004,7 @@
         <v>974.5</v>
       </c>
       <c r="B1951">
-        <v>-4595.8969611434504</v>
+        <v>-4595.1094620588001</v>
       </c>
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
@@ -16487,7 +16012,7 @@
         <v>975</v>
       </c>
       <c r="B1952">
-        <v>-4603.5828797464601</v>
+        <v>-4602.7942401067703</v>
       </c>
     </row>
     <row r="1953" spans="1:2" x14ac:dyDescent="0.25">
@@ -16495,7 +16020,7 @@
         <v>975.5</v>
       </c>
       <c r="B1953">
-        <v>-4611.2783002445103</v>
+        <v>-4610.4885455556096</v>
       </c>
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.25">
@@ -16503,7 +16028,7 @@
         <v>976</v>
       </c>
       <c r="B1954">
-        <v>-4618.9747139164401</v>
+        <v>-4618.1838315544201</v>
       </c>
     </row>
     <row r="1955" spans="1:2" x14ac:dyDescent="0.25">
@@ -16511,7 +16036,7 @@
         <v>976.5</v>
       </c>
       <c r="B1955">
-        <v>-4626.6720402113197</v>
+        <v>-4625.8800175589604</v>
       </c>
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.25">
@@ -16519,7 +16044,7 @@
         <v>977</v>
       </c>
       <c r="B1956">
-        <v>-4633.2705186896001</v>
+        <v>-4632.4775083357599</v>
       </c>
     </row>
     <row r="1957" spans="1:2" x14ac:dyDescent="0.25">
@@ -16527,7 +16052,7 @@
         <v>977.5</v>
       </c>
       <c r="B1957">
-        <v>-4639.8617114907402</v>
+        <v>-4639.0677031907699</v>
       </c>
     </row>
     <row r="1958" spans="1:2" x14ac:dyDescent="0.25">
@@ -16535,7 +16060,7 @@
         <v>978</v>
       </c>
       <c r="B1958">
-        <v>-4646.4529536658001</v>
+        <v>-4645.6579708600502</v>
       </c>
     </row>
     <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
@@ -16543,7 +16068,7 @@
         <v>978.5</v>
       </c>
       <c r="B1959">
-        <v>-4651.94575145212</v>
+        <v>-4651.1499752272302</v>
       </c>
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.25">
@@ -16551,7 +16076,7 @@
         <v>979</v>
       </c>
       <c r="B1960">
-        <v>-4657.4319702623197</v>
+        <v>-4656.6354175815104</v>
       </c>
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.25">
@@ -16559,7 +16084,7 @@
         <v>979.5</v>
       </c>
       <c r="B1961">
-        <v>-4658.5291240176002</v>
+        <v>-4657.7324249314497</v>
       </c>
     </row>
     <row r="1962" spans="1:2" x14ac:dyDescent="0.25">
@@ -16567,7 +16092,7 @@
         <v>980</v>
       </c>
       <c r="B1962">
-        <v>-4658.5291240176002</v>
+        <v>-4657.7324249314497</v>
       </c>
     </row>
     <row r="1963" spans="1:2" x14ac:dyDescent="0.25">
@@ -16575,7 +16100,7 @@
         <v>980.5</v>
       </c>
       <c r="B1963">
-        <v>-4658.5291240176002</v>
+        <v>-4657.7324249314497</v>
       </c>
     </row>
     <row r="1964" spans="1:2" x14ac:dyDescent="0.25">
@@ -16583,7 +16108,7 @@
         <v>981</v>
       </c>
       <c r="B1964">
-        <v>-4641.0989726452199</v>
+        <v>-4640.30346849954</v>
       </c>
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.25">
@@ -16591,7 +16116,7 @@
         <v>981.5</v>
       </c>
       <c r="B1965">
-        <v>-4641.0989726452199</v>
+        <v>-4640.30346849954</v>
       </c>
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.25">
@@ -16599,7 +16124,7 @@
         <v>982</v>
       </c>
       <c r="B1966">
-        <v>-4646.5323473246599</v>
+        <v>-4645.7372159265797</v>
       </c>
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.25">
@@ -16607,7 +16132,7 @@
         <v>982.5</v>
       </c>
       <c r="B1967">
-        <v>-4655.2747190132104</v>
+        <v>-4654.4803723329896</v>
       </c>
     </row>
     <row r="1968" spans="1:2" x14ac:dyDescent="0.25">
@@ -16615,7 +16140,7 @@
         <v>983</v>
       </c>
       <c r="B1968">
-        <v>-4656.3716609765197</v>
+        <v>-4655.5774055605998</v>
       </c>
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.25">
@@ -16623,7 +16148,7 @@
         <v>983.5</v>
       </c>
       <c r="B1969">
-        <v>-4660.7241577737204</v>
+        <v>-4659.93013624793</v>
       </c>
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.25">
@@ -16631,7 +16156,7 @@
         <v>984</v>
       </c>
       <c r="B1970">
-        <v>-4665.0911020105004</v>
+        <v>-4664.29738194946</v>
       </c>
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.25">
@@ -16639,7 +16164,7 @@
         <v>984.5</v>
       </c>
       <c r="B1971">
-        <v>-4669.4581780599701</v>
+        <v>-4668.6647452703501</v>
       </c>
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.25">
@@ -16647,7 +16172,7 @@
         <v>985</v>
       </c>
       <c r="B1972">
-        <v>-4673.82532850185</v>
+        <v>-4673.0321681654896</v>
       </c>
     </row>
     <row r="1973" spans="1:2" x14ac:dyDescent="0.25">
@@ -16655,7 +16180,7 @@
         <v>985.5</v>
       </c>
       <c r="B1973">
-        <v>-4678.1925588837303</v>
+        <v>-4677.3996562914499</v>
       </c>
     </row>
     <row r="1974" spans="1:2" x14ac:dyDescent="0.25">
@@ -16663,7 +16188,7 @@
         <v>986</v>
       </c>
       <c r="B1974">
-        <v>-4682.5598747584399</v>
+        <v>-4681.7672153247104</v>
       </c>
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
@@ -16671,7 +16196,7 @@
         <v>986.5</v>
       </c>
       <c r="B1975">
-        <v>-4686.9272814174801</v>
+        <v>-4686.1348506893701</v>
       </c>
     </row>
     <row r="1976" spans="1:2" x14ac:dyDescent="0.25">
@@ -16679,7 +16204,7 @@
         <v>987</v>
       </c>
       <c r="B1976">
-        <v>-4691.2947839020599</v>
+        <v>-4690.5025675673296</v>
       </c>
     </row>
     <row r="1977" spans="1:2" x14ac:dyDescent="0.25">
@@ -16687,7 +16212,7 @@
         <v>987.5</v>
       </c>
       <c r="B1977">
-        <v>-4695.6623870148596</v>
+        <v>-4694.8703709093197</v>
       </c>
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.25">
@@ -16695,7 +16220,7 @@
         <v>988</v>
       </c>
       <c r="B1978">
-        <v>-4700.0300953311598</v>
+        <v>-4699.2382654453204</v>
       </c>
     </row>
     <row r="1979" spans="1:2" x14ac:dyDescent="0.25">
@@ -16703,7 +16228,7 @@
         <v>988.5</v>
       </c>
       <c r="B1979">
-        <v>-4704.3979132095501</v>
+        <v>-4703.6062556945199</v>
       </c>
     </row>
     <row r="1980" spans="1:2" x14ac:dyDescent="0.25">
@@ -16711,7 +16236,7 @@
         <v>989</v>
       </c>
       <c r="B1980">
-        <v>-4708.7658448020302</v>
+        <v>-4707.9743459748497</v>
       </c>
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.25">
@@ -16719,7 +16244,7 @@
         <v>989.5</v>
       </c>
       <c r="B1981">
-        <v>-4713.1338940637497</v>
+        <v>-4712.3425404120499</v>
       </c>
     </row>
     <row r="1982" spans="1:2" x14ac:dyDescent="0.25">
@@ -16727,7 +16252,7 @@
         <v>990</v>
       </c>
       <c r="B1982">
-        <v>-4717.5020647621895</v>
+        <v>-4716.7108429483496</v>
       </c>
     </row>
     <row r="1983" spans="1:2" x14ac:dyDescent="0.25">
@@ -16735,7 +16260,7 @@
         <v>990.5</v>
       </c>
       <c r="B1983">
-        <v>-4721.8703604859602</v>
+        <v>-4721.0792573506897</v>
       </c>
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.25">
@@ -16743,7 +16268,7 @@
         <v>991</v>
       </c>
       <c r="B1984">
-        <v>-4726.2387846531901</v>
+        <v>-4725.4477872185898</v>
       </c>
     </row>
     <row r="1985" spans="1:2" x14ac:dyDescent="0.25">
@@ -16751,7 +16276,7 @@
         <v>991.5</v>
       </c>
       <c r="B1985">
-        <v>-4730.6073405195302</v>
+        <v>-4729.81643599173</v>
       </c>
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
@@ -16759,7 +16284,7 @@
         <v>992</v>
       </c>
       <c r="B1986">
-        <v>-4734.9760311857299</v>
+        <v>-4734.1852069570496</v>
       </c>
     </row>
     <row r="1987" spans="1:2" x14ac:dyDescent="0.25">
@@ -16767,7 +16292,7 @@
         <v>992.5</v>
       </c>
       <c r="B1987">
-        <v>-4739.3448596049602</v>
+        <v>-4738.5541032556303</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
@@ -16775,7 +16300,7 @@
         <v>993</v>
       </c>
       <c r="B1988">
-        <v>-4743.7138285896599</v>
+        <v>-4742.9231278892403</v>
       </c>
     </row>
     <row r="1989" spans="1:2" x14ac:dyDescent="0.25">
@@ -16783,7 +16308,7 @@
         <v>993.5</v>
       </c>
       <c r="B1989">
-        <v>-4748.0829408181698</v>
+        <v>-4747.2922837265096</v>
       </c>
     </row>
     <row r="1990" spans="1:2" x14ac:dyDescent="0.25">
@@ -16791,7 +16316,7 @@
         <v>994</v>
       </c>
       <c r="B1990">
-        <v>-4752.4521988410297</v>
+        <v>-4751.6615735089299</v>
       </c>
     </row>
     <row r="1991" spans="1:2" x14ac:dyDescent="0.25">
@@ -16799,7 +16324,7 @@
         <v>994.5</v>
       </c>
       <c r="B1991">
-        <v>-4756.8216050869596</v>
+        <v>-4756.0309998565399</v>
       </c>
     </row>
     <row r="1992" spans="1:2" x14ac:dyDescent="0.25">
@@ -16807,7 +16332,7 @@
         <v>995</v>
       </c>
       <c r="B1992">
-        <v>-4761.1911618685799</v>
+        <v>-4760.4005652732703</v>
       </c>
     </row>
     <row r="1993" spans="1:2" x14ac:dyDescent="0.25">
@@ -16815,7 +16340,7 @@
         <v>995.5</v>
       </c>
       <c r="B1993">
-        <v>-4765.5608713878501</v>
+        <v>-4764.7702721522101</v>
       </c>
     </row>
     <row r="1994" spans="1:2" x14ac:dyDescent="0.25">
@@ -16823,7 +16348,7 @@
         <v>996</v>
       </c>
       <c r="B1994">
-        <v>-4769.9307357412699</v>
+        <v>-4769.1401227804899</v>
       </c>
     </row>
     <row r="1995" spans="1:2" x14ac:dyDescent="0.25">
@@ -16831,7 +16356,7 @@
         <v>996.5</v>
       </c>
       <c r="B1995">
-        <v>-4774.3007569248202</v>
+        <v>-4773.5101193439896</v>
       </c>
     </row>
     <row r="1996" spans="1:2" x14ac:dyDescent="0.25">
@@ -16839,7 +16364,7 @@
         <v>997</v>
       </c>
       <c r="B1996">
-        <v>-4778.6709368387201</v>
+        <v>-4777.8802639318901</v>
       </c>
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.25">
@@ -16847,7 +16372,7 @@
         <v>997.5</v>
       </c>
       <c r="B1997">
-        <v>-4783.0412772918799</v>
+        <v>-4782.2505585409199</v>
       </c>
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
@@ -16855,7 +16380,7 @@
         <v>998</v>
       </c>
       <c r="B1998">
-        <v>-4787.4117800062204</v>
+        <v>-4786.6210050794698</v>
       </c>
     </row>
     <row r="1999" spans="1:2" x14ac:dyDescent="0.25">
@@ -16863,7 +16388,7 @@
         <v>998.5</v>
       </c>
       <c r="B1999">
-        <v>-4791.7824466207503</v>
+        <v>-4790.9916053715397</v>
       </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
@@ -16871,7 +16396,7 @@
         <v>999</v>
       </c>
       <c r="B2000">
-        <v>-4796.1532786954704</v>
+        <v>-4795.3623611604298</v>
       </c>
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.25">
@@ -16879,7 +16404,7 @@
         <v>999.5</v>
       </c>
       <c r="B2001">
-        <v>-4800.5242777150897</v>
+        <v>-4799.7332741123801</v>
       </c>
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.25">
@@ -16887,7 +16412,7 @@
         <v>1000</v>
       </c>
       <c r="B2002">
-        <v>-4804.8954450925903</v>
+        <v>-4804.1043458199101</v>
       </c>
     </row>
     <row r="2003" spans="1:2" x14ac:dyDescent="0.25">
@@ -16895,7 +16420,7 @@
         <v>1000.5</v>
       </c>
       <c r="B2003">
-        <v>-4809.2667821725599</v>
+        <v>-4808.4755778051303</v>
       </c>
     </row>
     <row r="2004" spans="1:2" x14ac:dyDescent="0.25">
@@ -16903,7 +16428,7 @@
         <v>1001</v>
       </c>
       <c r="B2004">
-        <v>-4813.6382902344703</v>
+        <v>-4812.8469715228402</v>
       </c>
     </row>
     <row r="2005" spans="1:2" x14ac:dyDescent="0.25">
@@ -16911,7 +16436,7 @@
         <v>1001.5</v>
       </c>
       <c r="B2005">
-        <v>-4818.0099704956901</v>
+        <v>-4817.2185283634799</v>
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.25">
@@ -16919,7 +16444,7 @@
         <v>1002</v>
       </c>
       <c r="B2006">
-        <v>-4822.38182411447</v>
+        <v>-4821.5902496560102</v>
       </c>
     </row>
     <row r="2007" spans="1:2" x14ac:dyDescent="0.25">
@@ -16927,7 +16452,7 @@
         <v>1002.5</v>
       </c>
       <c r="B2007">
-        <v>-4826.7538521926899</v>
+        <v>-4825.9621366705896</v>
       </c>
     </row>
     <row r="2008" spans="1:2" x14ac:dyDescent="0.25">
@@ -16935,7 +16460,7 @@
         <v>1003</v>
       </c>
       <c r="B2008">
-        <v>-4831.1260557785399</v>
+        <v>-4830.3341906211899</v>
       </c>
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.25">
@@ -16943,7 +16468,7 @@
         <v>1003.5</v>
       </c>
       <c r="B2009">
-        <v>-4835.4984358690599</v>
+        <v>-4834.7064126680498</v>
       </c>
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.25">
@@ -16951,7 +16476,7 @@
         <v>1004</v>
       </c>
       <c r="B2010">
-        <v>-4839.87099341254</v>
+        <v>-4839.0788039200597</v>
       </c>
     </row>
     <row r="2011" spans="1:2" x14ac:dyDescent="0.25">
@@ -16959,7 +16484,7 @@
         <v>1004.5</v>
       </c>
       <c r="B2011">
-        <v>-4844.2437293108496</v>
+        <v>-4843.4513654370203</v>
       </c>
     </row>
     <row r="2012" spans="1:2" x14ac:dyDescent="0.25">
@@ -16967,7 +16492,7 @@
         <v>1005</v>
       </c>
       <c r="B2012">
-        <v>-4848.6166444216196</v>
+        <v>-4847.8240982317902</v>
       </c>
     </row>
     <row r="2013" spans="1:2" x14ac:dyDescent="0.25">
@@ -16975,7 +16500,7 @@
         <v>1005.5</v>
       </c>
       <c r="B2013">
-        <v>-4852.9897395603602</v>
+        <v>-4852.1970032723502</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.25">
@@ -16983,7 +16508,7 @@
         <v>1006</v>
       </c>
       <c r="B2014">
-        <v>-4857.3630155024002</v>
+        <v>-4856.5700814837801</v>
       </c>
     </row>
     <row r="2015" spans="1:2" x14ac:dyDescent="0.25">
@@ -16991,7 +16516,7 @@
         <v>1006.5</v>
       </c>
       <c r="B2015">
-        <v>-4861.7364729848796</v>
+        <v>-4860.9433337501496</v>
       </c>
     </row>
     <row r="2016" spans="1:2" x14ac:dyDescent="0.25">
@@ -16999,7 +16524,7 @@
         <v>1007</v>
       </c>
       <c r="B2016">
-        <v>-4866.1101127084903</v>
+        <v>-4865.3167609163202</v>
       </c>
     </row>
     <row r="2017" spans="1:2" x14ac:dyDescent="0.25">
@@ -17007,7 +16532,7 @@
         <v>1007.5</v>
       </c>
       <c r="B2017">
-        <v>-4870.4839353392299</v>
+        <v>-4869.6903637896203</v>
       </c>
     </row>
     <row r="2018" spans="1:2" x14ac:dyDescent="0.25">
@@ -17015,7 +16540,7 @@
         <v>1008</v>
       </c>
       <c r="B2018">
-        <v>-4874.8579415100703</v>
+        <v>-4874.0641431415597</v>
       </c>
     </row>
     <row r="2019" spans="1:2" x14ac:dyDescent="0.25">
@@ -17023,7 +16548,7 @@
         <v>1008.5</v>
       </c>
       <c r="B2019">
-        <v>-4879.2321318225004</v>
+        <v>-4878.4380997093504</v>
       </c>
     </row>
     <row r="2020" spans="1:2" x14ac:dyDescent="0.25">
@@ -17031,7 +16556,7 @@
         <v>1009</v>
       </c>
       <c r="B2020">
-        <v>-4883.6065068480502</v>
+        <v>-4882.8122341974304</v>
       </c>
     </row>
     <row r="2021" spans="1:2" x14ac:dyDescent="0.25">
@@ -17039,7 +16564,7 @@
         <v>1009.5</v>
       </c>
       <c r="B2021">
-        <v>-4887.98106712971</v>
+        <v>-4887.1865472789004</v>
       </c>
     </row>
     <row r="2022" spans="1:2" x14ac:dyDescent="0.25">
@@ -17047,7 +16572,7 @@
         <v>1010</v>
       </c>
       <c r="B2022">
-        <v>-4892.3558131832697</v>
+        <v>-4891.5610395968597</v>
       </c>
     </row>
     <row r="2023" spans="1:2" x14ac:dyDescent="0.25">
@@ -17055,7 +16580,7 @@
         <v>1010.5</v>
       </c>
       <c r="B2023">
-        <v>-4896.7307454986503</v>
+        <v>-4895.9357117657801</v>
       </c>
     </row>
     <row r="2024" spans="1:2" x14ac:dyDescent="0.25">
@@ -17063,7 +16588,7 @@
         <v>1011</v>
       </c>
       <c r="B2024">
-        <v>-4901.1058645411404</v>
+        <v>-4900.3105643727204</v>
       </c>
     </row>
     <row r="2025" spans="1:2" x14ac:dyDescent="0.25">
@@ -17071,7 +16596,7 @@
         <v>1011.5</v>
       </c>
       <c r="B2025">
-        <v>-4905.4811707525496</v>
+        <v>-4904.6855979785196</v>
       </c>
     </row>
     <row r="2026" spans="1:2" x14ac:dyDescent="0.25">
@@ -17079,7 +16604,7 @@
         <v>1012</v>
       </c>
       <c r="B2026">
-        <v>-4909.8566645523297</v>
+        <v>-4909.0608131189601</v>
       </c>
     </row>
     <row r="2027" spans="1:2" x14ac:dyDescent="0.25">
@@ -17087,7 +16612,7 @@
         <v>1012.5</v>
       </c>
       <c r="B2027">
-        <v>-4914.2323463386801</v>
+        <v>-4913.4362103058502</v>
       </c>
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
@@ -17095,7 +16620,7 @@
         <v>1013</v>
       </c>
       <c r="B2028">
-        <v>-4918.6082164895497</v>
+        <v>-4917.8117900281004</v>
       </c>
     </row>
     <row r="2029" spans="1:2" x14ac:dyDescent="0.25">
@@ -17103,7 +16628,7 @@
         <v>1013.5</v>
       </c>
       <c r="B2029">
-        <v>-4922.9842753636103</v>
+        <v>-4922.1875527526699</v>
       </c>
     </row>
     <row r="2030" spans="1:2" x14ac:dyDescent="0.25">
@@ -17111,7 +16636,7 @@
         <v>1014</v>
       </c>
       <c r="B2030">
-        <v>-4927.3605233011604</v>
+        <v>-4926.5634989255896</v>
       </c>
     </row>
     <row r="2031" spans="1:2" x14ac:dyDescent="0.25">
@@ -17119,7 +16644,7 @@
         <v>1014.5</v>
       </c>
       <c r="B2031">
-        <v>-4931.7369606250604</v>
+        <v>-4930.9396289728202</v>
       </c>
     </row>
     <row r="2032" spans="1:2" x14ac:dyDescent="0.25">
@@ -17127,7 +16652,7 @@
         <v>1015</v>
       </c>
       <c r="B2032">
-        <v>-4932.8311173791699</v>
+        <v>-4932.0337075549096</v>
       </c>
     </row>
     <row r="2033" spans="1:2" x14ac:dyDescent="0.25">
@@ -17135,7 +16660,7 @@
         <v>1015.5</v>
       </c>
       <c r="B2033">
-        <v>-4933.9212518989698</v>
+        <v>-4933.1237620809798</v>
       </c>
     </row>
     <row r="2034" spans="1:2" x14ac:dyDescent="0.25">
@@ -17143,7 +16668,7 @@
         <v>1016</v>
       </c>
       <c r="B2034">
-        <v>-4935.0111019777696</v>
+        <v>-4934.21355705513</v>
       </c>
     </row>
     <row r="2035" spans="1:2" x14ac:dyDescent="0.25">
@@ -17151,7 +16676,7 @@
         <v>1016.5</v>
       </c>
       <c r="B2035">
-        <v>-4936.1006864994097</v>
+        <v>-4935.3031093058498</v>
       </c>
     </row>
     <row r="2036" spans="1:2" x14ac:dyDescent="0.25">
@@ -17159,7 +16684,7 @@
         <v>1017</v>
       </c>
       <c r="B2036">
-        <v>-4937.1900193990796</v>
+        <v>-4936.3924307852103</v>
       </c>
     </row>
     <row r="2037" spans="1:2" x14ac:dyDescent="0.25">
@@ -17167,7 +16692,7 @@
         <v>1017.5</v>
       </c>
       <c r="B2037">
-        <v>-4938.2791139033698</v>
+        <v>-4937.4815328669201</v>
       </c>
     </row>
     <row r="2038" spans="1:2" x14ac:dyDescent="0.25">
@@ -17175,7 +16700,7 @@
         <v>1018</v>
       </c>
       <c r="B2038">
-        <v>-4939.3679825710797</v>
+        <v>-4938.5704263794996</v>
       </c>
     </row>
     <row r="2039" spans="1:2" x14ac:dyDescent="0.25">
@@ -17183,7 +16708,7 @@
         <v>1018.5</v>
       </c>
       <c r="B2039">
-        <v>-4940.4566373273701</v>
+        <v>-4939.6591216332799</v>
       </c>
     </row>
     <row r="2040" spans="1:2" x14ac:dyDescent="0.25">
@@ -17191,7 +16716,7 @@
         <v>1019</v>
       </c>
       <c r="B2040">
-        <v>-4941.5450894960804</v>
+        <v>-4940.7476284458298</v>
       </c>
     </row>
     <row r="2041" spans="1:2" x14ac:dyDescent="0.25">
@@ -17199,7 +16724,7 @@
         <v>1019.5</v>
       </c>
       <c r="B2041">
-        <v>-4942.6333498304302</v>
+        <v>-4941.8359561662301</v>
       </c>
     </row>
     <row r="2042" spans="1:2" x14ac:dyDescent="0.25">
@@ -17207,7 +16732,7 @@
         <v>1020</v>
       </c>
       <c r="B2042">
-        <v>-4943.7214285420396</v>
+        <v>-4942.9241136979899</v>
       </c>
     </row>
     <row r="2043" spans="1:2" x14ac:dyDescent="0.25">
@@ -17215,7 +16740,7 @@
         <v>1020.5</v>
       </c>
       <c r="B2043">
-        <v>-4944.8093353284803</v>
+        <v>-4944.0121095209197</v>
       </c>
     </row>
     <row r="2044" spans="1:2" x14ac:dyDescent="0.25">
@@ -17223,7 +16748,7 @@
         <v>1021</v>
       </c>
       <c r="B2044">
-        <v>-4945.8970793994004</v>
+        <v>-4945.0999517117798</v>
       </c>
     </row>
     <row r="2045" spans="1:2" x14ac:dyDescent="0.25">
@@ -17231,7 +16756,7 @@
         <v>1021.5</v>
       </c>
       <c r="B2045">
-        <v>-4946.9846695012502</v>
+        <v>-4946.1876479639204</v>
       </c>
     </row>
     <row r="2046" spans="1:2" x14ac:dyDescent="0.25">
@@ -17239,7 +16764,7 @@
         <v>1022</v>
       </c>
       <c r="B2046">
-        <v>-4948.0721139407897</v>
+        <v>-4947.2752056059799</v>
       </c>
     </row>
     <row r="2047" spans="1:2" x14ac:dyDescent="0.25">
@@ -17247,7 +16772,7 @@
         <v>1022.5</v>
       </c>
       <c r="B2047">
-        <v>-4949.1594206073096</v>
+        <v>-4948.3626316195696</v>
       </c>
     </row>
     <row r="2048" spans="1:2" x14ac:dyDescent="0.25">
@@ -17255,7 +16780,7 @@
         <v>1023</v>
       </c>
       <c r="B2048">
-        <v>-4950.2465969938103</v>
+        <v>-4949.4499326561099</v>
       </c>
     </row>
     <row r="2049" spans="1:2" x14ac:dyDescent="0.25">
@@ -17263,7 +16788,7 @@
         <v>1023.5</v>
       </c>
       <c r="B2049">
-        <v>-4951.3336502169795</v>
+        <v>-4950.5371150528099</v>
       </c>
     </row>
     <row r="2050" spans="1:2" x14ac:dyDescent="0.25">
@@ -17271,7 +16796,7 @@
         <v>1024</v>
       </c>
       <c r="B2050">
-        <v>-4952.4205870362102</v>
+        <v>-4951.6241848478703</v>
       </c>
     </row>
     <row r="2051" spans="1:2" x14ac:dyDescent="0.25">
@@ -17279,7 +16804,7 @@
         <v>1024.5</v>
       </c>
       <c r="B2051">
-        <v>-4953.50741387165</v>
+        <v>-4952.7111477948802</v>
       </c>
     </row>
     <row r="2052" spans="1:2" x14ac:dyDescent="0.25">
@@ -17287,7 +16812,7 @@
         <v>1025</v>
       </c>
       <c r="B2052">
-        <v>-4954.5941368212798</v>
+        <v>-4953.79800937656</v>
       </c>
     </row>
     <row r="2053" spans="1:2" x14ac:dyDescent="0.25">
@@ -17295,7 +16820,7 @@
         <v>1025.5</v>
       </c>
       <c r="B2053">
-        <v>-4955.6807616771803</v>
+        <v>-4954.8847748177704</v>
       </c>
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.25">
@@ -17303,7 +16828,7 @@
         <v>1026</v>
       </c>
       <c r="B2054">
-        <v>-4956.7672939409003</v>
+        <v>-4955.9714490979004</v>
       </c>
     </row>
     <row r="2055" spans="1:2" x14ac:dyDescent="0.25">
@@ -17311,7 +16836,7 @@
         <v>1026.5</v>
       </c>
       <c r="B2055">
-        <v>-4957.8537388381301</v>
+        <v>-4957.0580369626396</v>
       </c>
     </row>
     <row r="2056" spans="1:2" x14ac:dyDescent="0.25">
@@ -17319,7 +16844,7 @@
         <v>1027</v>
       </c>
       <c r="B2056">
-        <v>-4958.9401013325196</v>
+        <v>-4958.1445429351897</v>
       </c>
     </row>
     <row r="2057" spans="1:2" x14ac:dyDescent="0.25">
@@ -17327,7 +16852,7 @@
         <v>1027.5</v>
       </c>
       <c r="B2057">
-        <v>-4960.0263861389203</v>
+        <v>-4959.2309713268596</v>
       </c>
     </row>
     <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
@@ -17335,7 +16860,7 @@
         <v>1028</v>
       </c>
       <c r="B2058">
-        <v>-4961.1125977358097</v>
+        <v>-4960.3173262472501</v>
       </c>
     </row>
     <row r="2059" spans="1:2" x14ac:dyDescent="0.25">
@@ -17343,7 +16868,7 @@
         <v>1028.5</v>
       </c>
       <c r="B2059">
-        <v>-4962.19874037725</v>
+        <v>-4961.4036116138004</v>
       </c>
     </row>
     <row r="2060" spans="1:2" x14ac:dyDescent="0.25">
@@ -17351,7 +16876,7 @@
         <v>1029</v>
       </c>
       <c r="B2060">
-        <v>-4963.2848181040999</v>
+        <v>-4962.4898311610004</v>
       </c>
     </row>
     <row r="2061" spans="1:2" x14ac:dyDescent="0.25">
@@ -17359,7 +16884,7 @@
         <v>1029.5</v>
       </c>
       <c r="B2061">
-        <v>-4964.3708347547299</v>
+        <v>-4963.5759884490799</v>
       </c>
     </row>
     <row r="2062" spans="1:2" x14ac:dyDescent="0.25">
@@ -17367,7 +16892,7 @@
         <v>1030</v>
       </c>
       <c r="B2062">
-        <v>-4965.4567939751996</v>
+        <v>-4964.6620868722603</v>
       </c>
     </row>
     <row r="2063" spans="1:2" x14ac:dyDescent="0.25">
@@ -17375,7 +16900,7 @@
         <v>1030.5</v>
       </c>
       <c r="B2063">
-        <v>-4966.5426992288803</v>
+        <v>-4965.7481296666701</v>
       </c>
     </row>
     <row r="2064" spans="1:2" x14ac:dyDescent="0.25">
@@ -17383,7 +16908,7 @@
         <v>1031</v>
       </c>
       <c r="B2064">
-        <v>-4970.8861175358797</v>
+        <v>-4970.0920906712399</v>
       </c>
     </row>
     <row r="2065" spans="1:2" x14ac:dyDescent="0.25">
@@ -17391,7 +16916,7 @@
         <v>1031.5</v>
       </c>
       <c r="B2065">
-        <v>-4979.6050154984996</v>
+        <v>-4978.8120786375503</v>
       </c>
     </row>
     <row r="2066" spans="1:2" x14ac:dyDescent="0.25">
@@ -17399,7 +16924,7 @@
         <v>1032</v>
       </c>
       <c r="B2066">
-        <v>-4994.9440242412902</v>
+        <v>-4994.1526256036004</v>
       </c>
     </row>
     <row r="2067" spans="1:2" x14ac:dyDescent="0.25">
@@ -17407,7 +16932,7 @@
         <v>1032.5</v>
       </c>
       <c r="B2067">
-        <v>-5001.5728176274097</v>
+        <v>-5000.7817072088001</v>
       </c>
     </row>
     <row r="2068" spans="1:2" x14ac:dyDescent="0.25">
@@ -17415,7 +16940,7 @@
         <v>1033</v>
       </c>
       <c r="B2068">
-        <v>-5007.0481745549996</v>
+        <v>-5006.2566870727396</v>
       </c>
     </row>
     <row r="2069" spans="1:2" x14ac:dyDescent="0.25">
@@ -17423,7 +16948,7 @@
         <v>1033.5</v>
       </c>
       <c r="B2069">
-        <v>-5012.5183240495699</v>
+        <v>-5011.7262877716703</v>
       </c>
     </row>
     <row r="2070" spans="1:2" x14ac:dyDescent="0.25">
@@ -17431,7 +16956,7 @@
         <v>1034</v>
       </c>
       <c r="B2070">
-        <v>-5017.9898356592003</v>
+        <v>-5017.1971467130297</v>
       </c>
     </row>
     <row r="2071" spans="1:2" x14ac:dyDescent="0.25">
@@ -17439,7 +16964,7 @@
         <v>1034.5</v>
       </c>
       <c r="B2071">
-        <v>-5023.4626940016697</v>
+        <v>-5022.6692572886604</v>
       </c>
     </row>
     <row r="2072" spans="1:2" x14ac:dyDescent="0.25">
@@ -17447,7 +16972,7 @@
         <v>1035</v>
       </c>
       <c r="B2072">
-        <v>-5028.9368482720802</v>
+        <v>-5028.1425763191601</v>
       </c>
     </row>
     <row r="2073" spans="1:2" x14ac:dyDescent="0.25">
@@ -17455,7 +16980,7 @@
         <v>1035.5</v>
       </c>
       <c r="B2073">
-        <v>-5034.41224989906</v>
+        <v>-5033.6170623932103</v>
       </c>
     </row>
     <row r="2074" spans="1:2" x14ac:dyDescent="0.25">
@@ -17463,7 +16988,7 @@
         <v>1036</v>
       </c>
       <c r="B2074">
-        <v>-5039.8888526482997</v>
+        <v>-5039.0926759998301</v>
       </c>
     </row>
     <row r="2075" spans="1:2" x14ac:dyDescent="0.25">
@@ -17471,7 +16996,7 @@
         <v>1036.5</v>
       </c>
       <c r="B2075">
-        <v>-5045.36661251446</v>
+        <v>-5044.5693794423396</v>
       </c>
     </row>
     <row r="2076" spans="1:2" x14ac:dyDescent="0.25">
@@ -17479,7 +17004,7 @@
         <v>1037</v>
       </c>
       <c r="B2076">
-        <v>-5050.8454876166597</v>
+        <v>-5050.0471367549699</v>
       </c>
     </row>
     <row r="2077" spans="1:2" x14ac:dyDescent="0.25">
@@ -17487,7 +17012,7 @@
         <v>1037.5</v>
       </c>
       <c r="B2077">
-        <v>-5056.32543809862</v>
+        <v>-5055.5259136233299</v>
       </c>
     </row>
     <row r="2078" spans="1:2" x14ac:dyDescent="0.25">
@@ -17495,7 +17020,7 @@
         <v>1038</v>
       </c>
       <c r="B2078">
-        <v>-5061.8064260337396</v>
+        <v>-5061.0056773086899</v>
       </c>
     </row>
     <row r="2079" spans="1:2" x14ac:dyDescent="0.25">
@@ -17503,7 +17028,7 @@
         <v>1038.5</v>
       </c>
       <c r="B2079">
-        <v>-5067.28841533374</v>
+        <v>-5066.4863965753002</v>
       </c>
     </row>
     <row r="2080" spans="1:2" x14ac:dyDescent="0.25">
@@ -17511,7 +17036,7 @@
         <v>1039</v>
       </c>
       <c r="B2080">
-        <v>-5072.77137166175</v>
+        <v>-5071.9680416211604</v>
       </c>
     </row>
     <row r="2081" spans="1:2" x14ac:dyDescent="0.25">
@@ -17519,7 +17044,7 @@
         <v>1039.5</v>
       </c>
       <c r="B2081">
-        <v>-5078.2552623493602</v>
+        <v>-5077.45058401201</v>
       </c>
     </row>
     <row r="2082" spans="1:2" x14ac:dyDescent="0.25">
@@ -17527,7 +17052,7 @@
         <v>1040</v>
       </c>
       <c r="B2082">
-        <v>-5083.7400563175197</v>
+        <v>-5082.9339966183297</v>
       </c>
     </row>
     <row r="2083" spans="1:2" x14ac:dyDescent="0.25">
@@ -17535,7 +17060,7 @@
         <v>1040.5</v>
       </c>
       <c r="B2083">
-        <v>-5089.2257240009203</v>
+        <v>-5088.41825355527</v>
       </c>
     </row>
     <row r="2084" spans="1:2" x14ac:dyDescent="0.25">
@@ -17543,7 +17068,7 @@
         <v>1041</v>
       </c>
       <c r="B2084">
-        <v>-5094.7122372760296</v>
+        <v>-5093.9033301253103</v>
       </c>
     </row>
     <row r="2085" spans="1:2" x14ac:dyDescent="0.25">
@@ -17551,7 +17076,7 @@
         <v>1041.5</v>
       </c>
       <c r="B2085">
-        <v>-5100.1995693922499</v>
+        <v>-5099.3892027635302</v>
       </c>
     </row>
     <row r="2086" spans="1:2" x14ac:dyDescent="0.25">
@@ -17559,7 +17084,7 @@
         <v>1042</v>
       </c>
       <c r="B2086">
-        <v>-5105.6876949063999</v>
+        <v>-5104.8758489854999</v>
       </c>
     </row>
     <row r="2087" spans="1:2" x14ac:dyDescent="0.25">
@@ -17567,7 +17092,7 @@
         <v>1042.5</v>
       </c>
       <c r="B2087">
-        <v>-5111.1765896201396</v>
+        <v>-5110.36324733741</v>
       </c>
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
@@ -17575,7 +17100,7 @@
         <v>1043</v>
       </c>
       <c r="B2088">
-        <v>-5116.6662305203599</v>
+        <v>-5115.8513773486502</v>
       </c>
     </row>
     <row r="2089" spans="1:2" x14ac:dyDescent="0.25">
@@ -17583,7 +17108,7 @@
         <v>1043.5</v>
       </c>
       <c r="B2089">
-        <v>-5121.0585226818703</v>
+        <v>-5120.2424510588999</v>
       </c>
     </row>
     <row r="2090" spans="1:2" x14ac:dyDescent="0.25">
@@ -17591,7 +17116,7 @@
         <v>1044</v>
       </c>
       <c r="B2090">
-        <v>-5125.4457816697904</v>
+        <v>-5124.6284867806999</v>
       </c>
     </row>
     <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
@@ -17599,7 +17124,7 @@
         <v>1044.5</v>
       </c>
       <c r="B2091">
-        <v>-5126.54261207541</v>
+        <v>-5125.7250211193596</v>
       </c>
     </row>
     <row r="2092" spans="1:2" x14ac:dyDescent="0.25">
@@ -17607,7 +17132,7 @@
         <v>1045</v>
       </c>
       <c r="B2092">
-        <v>-5126.54261207541</v>
+        <v>-5125.7250211193596</v>
       </c>
     </row>
     <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
@@ -17615,7 +17140,7 @@
         <v>1045.5</v>
       </c>
       <c r="B2093">
-        <v>-5126.54261207541</v>
+        <v>-5125.7250211193596</v>
       </c>
     </row>
     <row r="2094" spans="1:2" x14ac:dyDescent="0.25">
@@ -17623,7 +17148,7 @@
         <v>1046</v>
       </c>
       <c r="B2094">
-        <v>-5126.54261207541</v>
+        <v>-5125.7250211193596</v>
       </c>
     </row>
     <row r="2095" spans="1:2" x14ac:dyDescent="0.25">
@@ -17631,7 +17156,7 @@
         <v>1046.5</v>
       </c>
       <c r="B2095">
-        <v>-5125.4524260071503</v>
+        <v>-5124.6349800769503</v>
       </c>
     </row>
     <row r="2096" spans="1:2" x14ac:dyDescent="0.25">
@@ -17639,7 +17164,7 @@
         <v>1047</v>
       </c>
       <c r="B2096">
-        <v>-5124.3639774487601</v>
+        <v>-5123.5466345413897</v>
       </c>
     </row>
     <row r="2097" spans="1:2" x14ac:dyDescent="0.25">
@@ -17647,7 +17172,7 @@
         <v>1047.5</v>
       </c>
       <c r="B2097">
-        <v>-5123.2759853930702</v>
+        <v>-5122.4586963232896</v>
       </c>
     </row>
     <row r="2098" spans="1:2" x14ac:dyDescent="0.25">
@@ -17655,7 +17180,7 @@
         <v>1048</v>
       </c>
       <c r="B2098">
-        <v>-5121.1008703862999</v>
+        <v>-5120.2835997903203</v>
       </c>
     </row>
     <row r="2099" spans="1:2" x14ac:dyDescent="0.25">
@@ -17663,7 +17188,7 @@
         <v>1048.5</v>
       </c>
       <c r="B2099">
-        <v>-5118.9293032790702</v>
+        <v>-5118.1119712393102</v>
       </c>
     </row>
     <row r="2100" spans="1:2" x14ac:dyDescent="0.25">
@@ -17671,7 +17196,7 @@
         <v>1049</v>
       </c>
       <c r="B2100">
-        <v>-5116.7587304169801</v>
+        <v>-5115.9412422122596</v>
       </c>
     </row>
     <row r="2101" spans="1:2" x14ac:dyDescent="0.25">
@@ -17679,7 +17204,7 @@
         <v>1049.5</v>
       </c>
       <c r="B2101">
-        <v>-5113.5042957292299</v>
+        <v>-5112.6864454362703</v>
       </c>
     </row>
     <row r="2102" spans="1:2" x14ac:dyDescent="0.25">
@@ -17687,7 +17212,7 @@
         <v>1050</v>
       </c>
       <c r="B2102">
-        <v>-5110.2552720672202</v>
+        <v>-5109.4369475142103</v>
       </c>
     </row>
     <row r="2103" spans="1:2" x14ac:dyDescent="0.25">
@@ -17695,7 +17220,7 @@
         <v>1050.5</v>
       </c>
       <c r="B2103">
-        <v>-5105.9253671797596</v>
+        <v>-5105.1062302485798</v>
       </c>
     </row>
     <row r="2104" spans="1:2" x14ac:dyDescent="0.25">
@@ -17703,7 +17228,7 @@
         <v>1051</v>
       </c>
       <c r="B2104">
-        <v>-5101.6028785726803</v>
+        <v>-5100.7827734093798</v>
       </c>
     </row>
     <row r="2105" spans="1:2" x14ac:dyDescent="0.25">
@@ -17711,7 +17236,7 @@
         <v>1051.5</v>
       </c>
       <c r="B2105">
-        <v>-5099.4428037840999</v>
+        <v>-5098.6221218329301</v>
       </c>
     </row>
     <row r="2106" spans="1:2" x14ac:dyDescent="0.25">
@@ -17719,7 +17244,7 @@
         <v>1052</v>
       </c>
       <c r="B2106">
-        <v>-5096.1963271373197</v>
+        <v>-5095.3746476105298</v>
       </c>
     </row>
     <row r="2107" spans="1:2" x14ac:dyDescent="0.25">
@@ -17727,7 +17252,7 @@
         <v>1052.5</v>
       </c>
       <c r="B2107">
-        <v>-5092.9548668719199</v>
+        <v>-5092.1321480885899</v>
       </c>
     </row>
     <row r="2108" spans="1:2" x14ac:dyDescent="0.25">
@@ -17735,7 +17260,7 @@
         <v>1053</v>
       </c>
       <c r="B2108">
-        <v>-5089.71463142828</v>
+        <v>-5088.89080168083</v>
       </c>
     </row>
     <row r="2109" spans="1:2" x14ac:dyDescent="0.25">
@@ -17743,7 +17268,7 @@
         <v>1053.5</v>
       </c>
       <c r="B2109">
-        <v>-5085.3958880918299</v>
+        <v>-5084.5704940842297</v>
       </c>
     </row>
     <row r="2110" spans="1:2" x14ac:dyDescent="0.25">
@@ -17751,7 +17276,7 @@
         <v>1054</v>
       </c>
       <c r="B2110">
-        <v>-5081.0839901131603</v>
+        <v>-5080.2569674084498</v>
       </c>
     </row>
     <row r="2111" spans="1:2" x14ac:dyDescent="0.25">
@@ -17759,7 +17284,7 @@
         <v>1054.5</v>
       </c>
       <c r="B2111">
-        <v>-5076.7739167007803</v>
+        <v>-5075.9451626235104</v>
       </c>
     </row>
     <row r="2112" spans="1:2" x14ac:dyDescent="0.25">
@@ -17767,7 +17292,7 @@
         <v>1055</v>
       </c>
       <c r="B2112">
-        <v>-5073.5426808492803</v>
+        <v>-5072.7125617581996</v>
       </c>
     </row>
     <row r="2113" spans="1:2" x14ac:dyDescent="0.25">
@@ -17775,7 +17300,7 @@
         <v>1055.5</v>
       </c>
       <c r="B2113">
-        <v>-5070.3087043771902</v>
+        <v>-5069.4771569293898</v>
       </c>
     </row>
     <row r="2114" spans="1:2" x14ac:dyDescent="0.25">
@@ -17783,7 +17308,7 @@
         <v>1056</v>
       </c>
       <c r="B2114">
-        <v>-5067.0756217894404</v>
+        <v>-5066.2426277462</v>
       </c>
     </row>
     <row r="2115" spans="1:2" x14ac:dyDescent="0.25">
@@ -17791,7 +17316,7 @@
         <v>1056.5</v>
       </c>
       <c r="B2115">
-        <v>-5063.8433799798104</v>
+        <v>-5063.0089256251604</v>
       </c>
     </row>
     <row r="2116" spans="1:2" x14ac:dyDescent="0.25">
@@ -17799,7 +17324,7 @@
         <v>1057</v>
       </c>
       <c r="B2116">
-        <v>-5061.6890870257603</v>
+        <v>-5060.8536528885897</v>
       </c>
     </row>
     <row r="2117" spans="1:2" x14ac:dyDescent="0.25">
@@ -17807,7 +17332,7 @@
         <v>1057.5</v>
       </c>
       <c r="B2117">
-        <v>-5059.5326348312001</v>
+        <v>-5058.6962130194097</v>
       </c>
     </row>
     <row r="2118" spans="1:2" x14ac:dyDescent="0.25">
@@ -17815,7 +17340,7 @@
         <v>1058</v>
       </c>
       <c r="B2118">
-        <v>-5057.3764633313504</v>
+        <v>-5056.5390727625199</v>
       </c>
     </row>
     <row r="2119" spans="1:2" x14ac:dyDescent="0.25">
@@ -17823,7 +17348,7 @@
         <v>1058.5</v>
       </c>
       <c r="B2119">
-        <v>-5055.2205552020396</v>
+        <v>-5054.3822149264797</v>
       </c>
     </row>
     <row r="2120" spans="1:2" x14ac:dyDescent="0.25">
@@ -17831,7 +17356,7 @@
         <v>1059</v>
       </c>
       <c r="B2120">
-        <v>-5054.1427272577403</v>
+        <v>-5053.3039217453397</v>
       </c>
     </row>
     <row r="2121" spans="1:2" x14ac:dyDescent="0.25">
@@ -17839,7 +17364,7 @@
         <v>1059.5</v>
       </c>
       <c r="B2121">
-        <v>-5053.0636805824997</v>
+        <v>-5052.2244174861098</v>
       </c>
     </row>
     <row r="2122" spans="1:2" x14ac:dyDescent="0.25">
@@ -17847,7 +17372,7 @@
         <v>1060</v>
       </c>
       <c r="B2122">
-        <v>-5051.9846439242501</v>
+        <v>-5051.1449430149096</v>
       </c>
     </row>
     <row r="2123" spans="1:2" x14ac:dyDescent="0.25">
@@ -17855,7 +17380,7 @@
         <v>1060.5</v>
       </c>
       <c r="B2123">
-        <v>-5051.9846439242501</v>
+        <v>-5051.1449430149096</v>
       </c>
     </row>
     <row r="2124" spans="1:2" x14ac:dyDescent="0.25">
@@ -17863,7 +17388,7 @@
         <v>1061</v>
       </c>
       <c r="B2124">
-        <v>-5051.9846439242501</v>
+        <v>-5051.1449430149096</v>
       </c>
     </row>
     <row r="2125" spans="1:2" x14ac:dyDescent="0.25">
@@ -17871,7 +17396,7 @@
         <v>1061.5</v>
       </c>
       <c r="B2125">
-        <v>-5135.1803294988003</v>
+        <v>-5134.3695490292203</v>
       </c>
     </row>
     <row r="2126" spans="1:2" x14ac:dyDescent="0.25">
@@ -17879,7 +17404,7 @@
         <v>1062</v>
       </c>
       <c r="B2126">
-        <v>-5151.9187583753201</v>
+        <v>-5151.1150056897704</v>
       </c>
     </row>
     <row r="2127" spans="1:2" x14ac:dyDescent="0.25">
@@ -17887,7 +17412,7 @@
         <v>1062.5</v>
       </c>
       <c r="B2127">
-        <v>-5164.13469649531</v>
+        <v>-5163.3258059458403</v>
       </c>
     </row>
     <row r="2128" spans="1:2" x14ac:dyDescent="0.25">
@@ -17895,7 +17420,7 @@
         <v>1063</v>
       </c>
       <c r="B2128">
-        <v>-5175.1955879675697</v>
+        <v>-5174.3806335510799</v>
       </c>
     </row>
     <row r="2129" spans="1:2" x14ac:dyDescent="0.25">
@@ -17903,7 +17428,7 @@
         <v>1063.5</v>
       </c>
       <c r="B2129">
-        <v>-5187.3560472132403</v>
+        <v>-5186.5336644576701</v>
       </c>
     </row>
     <row r="2130" spans="1:2" x14ac:dyDescent="0.25">
@@ -17911,7 +17436,7 @@
         <v>1064</v>
       </c>
       <c r="B2130">
-        <v>-5199.5404607047203</v>
+        <v>-5198.7100589599504</v>
       </c>
     </row>
     <row r="2131" spans="1:2" x14ac:dyDescent="0.25">
@@ -17919,7 +17444,7 @@
         <v>1064.5</v>
       </c>
       <c r="B2131">
-        <v>-5210.62585263649</v>
+        <v>-5209.7875685367399</v>
       </c>
     </row>
     <row r="2132" spans="1:2" x14ac:dyDescent="0.25">
@@ -17927,7 +17452,7 @@
         <v>1065</v>
       </c>
       <c r="B2132">
-        <v>-5221.7049214673798</v>
+        <v>-5220.8582400470304</v>
       </c>
     </row>
     <row r="2133" spans="1:2" x14ac:dyDescent="0.25">
@@ -17935,7 +17460,7 @@
         <v>1065.5</v>
       </c>
       <c r="B2133">
-        <v>-5232.7904154698699</v>
+        <v>-5231.9349740447697</v>
       </c>
     </row>
     <row r="2134" spans="1:2" x14ac:dyDescent="0.25">
@@ -17943,7 +17468,7 @@
         <v>1066</v>
       </c>
       <c r="B2134">
-        <v>-5241.6638684050804</v>
+        <v>-5240.8011604983503</v>
       </c>
     </row>
     <row r="2135" spans="1:2" x14ac:dyDescent="0.25">
@@ -17951,7 +17476,7 @@
         <v>1066.5</v>
       </c>
       <c r="B2135">
-        <v>-5241.6638684050804</v>
+        <v>-5240.8011604983503</v>
       </c>
     </row>
     <row r="2136" spans="1:2" x14ac:dyDescent="0.25">
@@ -17959,7 +17484,7 @@
         <v>1067</v>
       </c>
       <c r="B2136">
-        <v>-5235.0890759205104</v>
+        <v>-5234.2317894174803</v>
       </c>
     </row>
     <row r="2137" spans="1:2" x14ac:dyDescent="0.25">
@@ -17967,7 +17492,7 @@
         <v>1067.5</v>
       </c>
       <c r="B2137">
-        <v>-5243.7840744812602</v>
+        <v>-5242.92055985958</v>
       </c>
     </row>
     <row r="2138" spans="1:2" x14ac:dyDescent="0.25">
@@ -17975,7 +17500,7 @@
         <v>1068</v>
       </c>
       <c r="B2138">
-        <v>-5252.6248424942696</v>
+        <v>-5251.7562473841699</v>
       </c>
     </row>
     <row r="2139" spans="1:2" x14ac:dyDescent="0.25">
@@ -17983,7 +17508,7 @@
         <v>1068.5</v>
       </c>
       <c r="B2139">
-        <v>-5262.5760300044103</v>
+        <v>-5261.7015610278404</v>
       </c>
     </row>
     <row r="2140" spans="1:2" x14ac:dyDescent="0.25">
@@ -17991,7 +17516,7 @@
         <v>1069</v>
       </c>
       <c r="B2140">
-        <v>-5272.5438501928502</v>
+        <v>-5271.6633211754597</v>
       </c>
     </row>
     <row r="2141" spans="1:2" x14ac:dyDescent="0.25">
@@ -17999,7 +17524,7 @@
         <v>1069.5</v>
       </c>
       <c r="B2141">
-        <v>-5282.5164235778902</v>
+        <v>-5281.6295642942396</v>
       </c>
     </row>
     <row r="2142" spans="1:2" x14ac:dyDescent="0.25">
@@ -18007,7 +17532,7 @@
         <v>1070</v>
       </c>
       <c r="B2142">
-        <v>-5292.4934466778996</v>
+        <v>-5291.6000124881502</v>
       </c>
     </row>
     <row r="2143" spans="1:2" x14ac:dyDescent="0.25">
@@ -18015,7 +17540,7 @@
         <v>1070.5</v>
       </c>
       <c r="B2143">
-        <v>-5302.4747484755999</v>
+        <v>-5301.5745209907</v>
       </c>
     </row>
     <row r="2144" spans="1:2" x14ac:dyDescent="0.25">
@@ -18023,7 +17548,7 @@
         <v>1071</v>
       </c>
       <c r="B2144">
-        <v>-5312.4601674087799</v>
+        <v>-5311.5529527963099</v>
       </c>
     </row>
     <row r="2145" spans="1:2" x14ac:dyDescent="0.25">
@@ -18031,7 +17556,7 @@
         <v>1071.5</v>
       </c>
       <c r="B2145">
-        <v>-5322.44954968826</v>
+        <v>-5321.5351770247298</v>
       </c>
     </row>
     <row r="2146" spans="1:2" x14ac:dyDescent="0.25">
@@ -18039,7 +17564,7 @@
         <v>1072</v>
       </c>
       <c r="B2146">
-        <v>-5332.4427489319196</v>
+        <v>-5331.5210686382197</v>
       </c>
     </row>
     <row r="2147" spans="1:2" x14ac:dyDescent="0.25">
@@ -18047,7 +17572,7 @@
         <v>1072.5</v>
       </c>
       <c r="B2147">
-        <v>-5342.4396258270799</v>
+        <v>-5341.5105081845004</v>
       </c>
     </row>
     <row r="2148" spans="1:2" x14ac:dyDescent="0.25">
@@ -18055,7 +17580,7 @@
         <v>1073</v>
       </c>
       <c r="B2148">
-        <v>-5352.4400478071102</v>
+        <v>-5351.5033815507904</v>
       </c>
     </row>
     <row r="2149" spans="1:2" x14ac:dyDescent="0.25">
@@ -18063,7 +17588,7 @@
         <v>1073.5</v>
       </c>
       <c r="B2149">
-        <v>-5362.4438887413999</v>
+        <v>-5361.49957972829</v>
       </c>
     </row>
     <row r="2150" spans="1:2" x14ac:dyDescent="0.25">
@@ -18071,7 +17596,7 @@
         <v>1074</v>
       </c>
       <c r="B2150">
-        <v>-5372.4510286385002</v>
+        <v>-5371.4989985867496</v>
       </c>
     </row>
     <row r="2151" spans="1:2" x14ac:dyDescent="0.25">
@@ -18079,7 +17604,7 @@
         <v>1074.5</v>
       </c>
       <c r="B2151">
-        <v>-5382.4613533616903</v>
+        <v>-5381.5015386586501</v>
       </c>
     </row>
     <row r="2152" spans="1:2" x14ac:dyDescent="0.25">
@@ -18087,7 +17612,7 @@
         <v>1075</v>
       </c>
       <c r="B2152">
-        <v>-5392.4747543567801</v>
+        <v>-5391.5071049326998</v>
       </c>
     </row>
     <row r="2153" spans="1:2" x14ac:dyDescent="0.25">
@@ -18095,7 +17620,7 @@
         <v>1075.5</v>
       </c>
       <c r="B2153">
-        <v>-5402.4911283915799</v>
+        <v>-5401.5156066562704</v>
       </c>
     </row>
     <row r="2154" spans="1:2" x14ac:dyDescent="0.25">
@@ -18103,7 +17628,7 @@
         <v>1076</v>
       </c>
       <c r="B2154">
-        <v>-5412.5103773066103</v>
+        <v>-5411.5269571462704</v>
       </c>
     </row>
     <row r="2155" spans="1:2" x14ac:dyDescent="0.25">
@@ -18111,7 +17636,7 @@
         <v>1076.5</v>
       </c>
       <c r="B2155">
-        <v>-5422.53240777669</v>
+        <v>-5421.5410736083804</v>
       </c>
     </row>
     <row r="2156" spans="1:2" x14ac:dyDescent="0.25">
@@ -18119,7 +17644,7 @@
         <v>1077</v>
       </c>
       <c r="B2156">
-        <v>-5432.55713108293</v>
+        <v>-5431.5578769640097</v>
       </c>
     </row>
     <row r="2157" spans="1:2" x14ac:dyDescent="0.25">
@@ -18127,7 +17652,7 @@
         <v>1077.5</v>
       </c>
       <c r="B2157">
-        <v>-5442.5844628947598</v>
+        <v>-5441.57729168487</v>
       </c>
     </row>
     <row r="2158" spans="1:2" x14ac:dyDescent="0.25">
@@ -18135,7 +17660,7 @@
         <v>1078</v>
       </c>
       <c r="B2158">
-        <v>-5452.6143230616499</v>
+        <v>-5451.5992456347903</v>
       </c>
     </row>
     <row r="2159" spans="1:2" x14ac:dyDescent="0.25">
@@ -18143,7 +17668,7 @@
         <v>1078.5</v>
       </c>
       <c r="B2159">
-        <v>-5462.6466354140503</v>
+        <v>-5461.6236699183901</v>
       </c>
     </row>
     <row r="2160" spans="1:2" x14ac:dyDescent="0.25">
@@ -18151,7 +17676,7 @@
         <v>1079</v>
       </c>
       <c r="B2160">
-        <v>-5472.6813275732602</v>
+        <v>-5471.6504987364997</v>
       </c>
     </row>
     <row r="2161" spans="1:2" x14ac:dyDescent="0.25">
@@ -18159,7 +17684,7 @@
         <v>1079.5</v>
       </c>
       <c r="B2161">
-        <v>-5482.7183307698897</v>
+        <v>-5481.6796692478501</v>
       </c>
     </row>
     <row r="2162" spans="1:2" x14ac:dyDescent="0.25">
@@ -18167,7 +17692,7 @@
         <v>1080</v>
       </c>
       <c r="B2162">
-        <v>-5492.7575796704105</v>
+        <v>-5491.7111214368497</v>
       </c>
     </row>
     <row r="2163" spans="1:2" x14ac:dyDescent="0.25">
@@ -18175,7 +17700,7 @@
         <v>1080.5</v>
       </c>
       <c r="B2163">
-        <v>-5502.7990122117099</v>
+        <v>-5501.7447979873295</v>
       </c>
     </row>
     <row r="2164" spans="1:2" x14ac:dyDescent="0.25">
@@ -18183,7 +17708,7 @@
         <v>1081</v>
       </c>
       <c r="B2164">
-        <v>-5512.8425694431098</v>
+        <v>-5511.7806441617004</v>
       </c>
     </row>
     <row r="2165" spans="1:2" x14ac:dyDescent="0.25">
@@ -18191,7 +17716,7 @@
         <v>1081.5</v>
       </c>
       <c r="B2165">
-        <v>-5522.88819537565</v>
+        <v>-5521.81860768556</v>
       </c>
     </row>
     <row r="2166" spans="1:2" x14ac:dyDescent="0.25">
@@ -18199,7 +17724,7 @@
         <v>1082</v>
       </c>
       <c r="B2166">
-        <v>-5532.9358368383</v>
+        <v>-5531.8586386373699</v>
       </c>
     </row>
     <row r="2167" spans="1:2" x14ac:dyDescent="0.25">
@@ -18207,7 +17732,7 @@
         <v>1082.5</v>
       </c>
       <c r="B2167">
-        <v>-5541.8688203960701</v>
+        <v>-5540.7849059313703</v>
       </c>
     </row>
     <row r="2168" spans="1:2" x14ac:dyDescent="0.25">
@@ -18215,7 +17740,7 @@
         <v>1083</v>
       </c>
       <c r="B2168">
-        <v>-5550.7916842280501</v>
+        <v>-5549.7011253990004</v>
       </c>
     </row>
     <row r="2169" spans="1:2" x14ac:dyDescent="0.25">
@@ -18223,7 +17748,7 @@
         <v>1083.5</v>
       </c>
       <c r="B2169">
-        <v>-5559.7150825669496</v>
+        <v>-5558.6180753153203</v>
       </c>
     </row>
     <row r="2170" spans="1:2" x14ac:dyDescent="0.25">
@@ -18231,7 +17756,7 @@
         <v>1084</v>
       </c>
       <c r="B2170">
-        <v>-5568.6391279026702</v>
+        <v>-5567.5358593358396</v>
       </c>
     </row>
     <row r="2171" spans="1:2" x14ac:dyDescent="0.25">
@@ -18239,7 +17764,7 @@
         <v>1084.5</v>
       </c>
       <c r="B2171">
-        <v>-5577.5638306926903</v>
+        <v>-5576.4544770037501</v>
       </c>
     </row>
     <row r="2172" spans="1:2" x14ac:dyDescent="0.25">
@@ -18247,7 +17772,7 @@
         <v>1085</v>
       </c>
       <c r="B2172">
-        <v>-5586.4891998802996</v>
+        <v>-5585.3739268900499</v>
       </c>
     </row>
     <row r="2173" spans="1:2" x14ac:dyDescent="0.25">
@@ -18255,7 +17780,7 @@
         <v>1085.5</v>
       </c>
       <c r="B2173">
-        <v>-5595.4152438914098</v>
+        <v>-5594.2942075995898</v>
       </c>
     </row>
     <row r="2174" spans="1:2" x14ac:dyDescent="0.25">
@@ -18263,7 +17788,7 @@
         <v>1086</v>
       </c>
       <c r="B2174">
-        <v>-5604.3419706718696</v>
+        <v>-5603.2153177801501</v>
       </c>
     </row>
     <row r="2175" spans="1:2" x14ac:dyDescent="0.25">
@@ -18271,7 +17796,7 @@
         <v>1086.5</v>
       </c>
       <c r="B2175">
-        <v>-5613.2693877141201</v>
+        <v>-5612.1372561219296</v>
       </c>
     </row>
     <row r="2176" spans="1:2" x14ac:dyDescent="0.25">
@@ -18279,7 +17804,7 @@
         <v>1087</v>
       </c>
       <c r="B2176">
-        <v>-5622.1975020822701</v>
+        <v>-5621.0600213568096</v>
       </c>
     </row>
     <row r="2177" spans="1:2" x14ac:dyDescent="0.25">
@@ -18287,7 +17812,7 @@
         <v>1087.5</v>
       </c>
       <c r="B2177">
-        <v>-5631.1263204360002</v>
+        <v>-5629.9836122575898</v>
       </c>
     </row>
     <row r="2178" spans="1:2" x14ac:dyDescent="0.25">
@@ -18295,7 +17820,7 @@
         <v>1088</v>
       </c>
       <c r="B2178">
-        <v>-5640.0558490530902</v>
+        <v>-5638.9080276372897</v>
       </c>
     </row>
     <row r="2179" spans="1:2" x14ac:dyDescent="0.25">
@@ -18303,7 +17828,7 @@
         <v>1088.5</v>
       </c>
       <c r="B2179">
-        <v>-5648.98609385079</v>
+        <v>-5647.8332663483097</v>
       </c>
     </row>
     <row r="2180" spans="1:2" x14ac:dyDescent="0.25">
@@ -18311,7 +17836,7 @@
         <v>1089</v>
       </c>
       <c r="B2180">
-        <v>-5657.9170604060901</v>
+        <v>-5656.7593272817203</v>
       </c>
     </row>
     <row r="2181" spans="1:2" x14ac:dyDescent="0.25">
@@ -18319,7 +17844,7 @@
         <v>1089.5</v>
       </c>
       <c r="B2181">
-        <v>-5666.8487539748903</v>
+        <v>-5665.6862093664204</v>
       </c>
     </row>
     <row r="2182" spans="1:2" x14ac:dyDescent="0.25">
@@ -18327,7 +17852,7 @@
         <v>1090</v>
       </c>
       <c r="B2182">
-        <v>-5675.7811795101197</v>
+        <v>-5674.61391156833</v>
       </c>
     </row>
     <row r="2183" spans="1:2" x14ac:dyDescent="0.25">
@@ -18335,7 +17860,7 @@
         <v>1090.5</v>
       </c>
       <c r="B2183">
-        <v>-5684.7143416789504</v>
+        <v>-5683.5424328896497</v>
       </c>
     </row>
     <row r="2184" spans="1:2" x14ac:dyDescent="0.25">
@@ -18343,7 +17868,7 @@
         <v>1091</v>
       </c>
       <c r="B2184">
-        <v>-5693.6482448790402</v>
+        <v>-5692.4717723679996</v>
       </c>
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.25">
@@ -18351,7 +17876,7 @@
         <v>1091.5</v>
       </c>
       <c r="B2185">
-        <v>-5702.5828932538798</v>
+        <v>-5701.4019290755896</v>
       </c>
     </row>
     <row r="2186" spans="1:2" x14ac:dyDescent="0.25">
@@ -18359,7 +17884,7 @@
         <v>1092</v>
       </c>
       <c r="B2186">
-        <v>-5711.5182907074204</v>
+        <v>-5710.33290211851</v>
       </c>
     </row>
     <row r="2187" spans="1:2" x14ac:dyDescent="0.25">
@@ -18367,7 +17892,7 @@
         <v>1092.5</v>
       </c>
       <c r="B2187">
-        <v>-5720.4544409177597</v>
+        <v>-5719.2646906358004</v>
       </c>
     </row>
     <row r="2188" spans="1:2" x14ac:dyDescent="0.25">
@@ -18375,7 +17900,7 @@
         <v>1093</v>
       </c>
       <c r="B2188">
-        <v>-5729.3913473501998</v>
+        <v>-5728.1972937987402</v>
       </c>
     </row>
     <row r="2189" spans="1:2" x14ac:dyDescent="0.25">
@@ -18383,7 +17908,7 @@
         <v>1093.5</v>
       </c>
       <c r="B2189">
-        <v>-5738.3290132695502</v>
+        <v>-5737.13071081004</v>
       </c>
     </row>
     <row r="2190" spans="1:2" x14ac:dyDescent="0.25">
@@ -18391,7 +17916,7 @@
         <v>1094</v>
       </c>
       <c r="B2190">
-        <v>-5747.2674417517501</v>
+        <v>-5746.0649409030002</v>
       </c>
     </row>
     <row r="2191" spans="1:2" x14ac:dyDescent="0.25">
@@ -18399,7 +17924,7 @@
         <v>1094.5</v>
       </c>
       <c r="B2191">
-        <v>-5756.2066356948799</v>
+        <v>-5754.9999833408001</v>
       </c>
     </row>
     <row r="2192" spans="1:2" x14ac:dyDescent="0.25">
@@ -18407,7 +17932,7 @@
         <v>1095</v>
       </c>
       <c r="B2192">
-        <v>-5765.14659782953</v>
+        <v>-5763.93583741567</v>
       </c>
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.25">
@@ -18415,7 +17940,7 @@
         <v>1095.5</v>
       </c>
       <c r="B2193">
-        <v>-5774.0873307286301</v>
+        <v>-5772.87250244815</v>
       </c>
     </row>
     <row r="2194" spans="1:2" x14ac:dyDescent="0.25">
@@ -18423,7 +17948,7 @@
         <v>1096</v>
       </c>
       <c r="B2194">
-        <v>-5784.1465250777501</v>
+        <v>-5782.9271622036204</v>
       </c>
     </row>
     <row r="2195" spans="1:2" x14ac:dyDescent="0.25">
@@ -18431,7 +17956,7 @@
         <v>1096.5</v>
       </c>
       <c r="B2195">
-        <v>-5790.8621495665002</v>
+        <v>-5789.6397821395403</v>
       </c>
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.25">
@@ -18439,7 +17964,7 @@
         <v>1097</v>
       </c>
       <c r="B2196">
-        <v>-5802.0127766413398</v>
+        <v>-5800.7852604596901</v>
       </c>
     </row>
     <row r="2197" spans="1:2" x14ac:dyDescent="0.25">
@@ -18447,7 +17972,7 @@
         <v>1097.5</v>
       </c>
       <c r="B2197">
-        <v>-5814.3413875669803</v>
+        <v>-5813.1086975561202</v>
       </c>
     </row>
     <row r="2198" spans="1:2" x14ac:dyDescent="0.25">
@@ -18455,7 +17980,7 @@
         <v>1098</v>
       </c>
       <c r="B2198">
-        <v>-5824.4458589436199</v>
+        <v>-5823.20854476976</v>
       </c>
     </row>
     <row r="2199" spans="1:2" x14ac:dyDescent="0.25">
@@ -18463,7 +17988,7 @@
         <v>1098.5</v>
       </c>
       <c r="B2199">
-        <v>-5833.40772166645</v>
+        <v>-5832.1658160801198</v>
       </c>
     </row>
     <row r="2200" spans="1:2" x14ac:dyDescent="0.25">
@@ -18471,7 +17996,7 @@
         <v>1099</v>
       </c>
       <c r="B2200">
-        <v>-5842.3590563632297</v>
+        <v>-5841.1124754699804</v>
       </c>
     </row>
     <row r="2201" spans="1:2" x14ac:dyDescent="0.25">
@@ -18479,7 +18004,7 @@
         <v>1099.5</v>
       </c>
       <c r="B2201">
-        <v>-5852.4297809753298</v>
+        <v>-5851.17805694254</v>
       </c>
     </row>
     <row r="2202" spans="1:2" x14ac:dyDescent="0.25">
@@ -18487,7 +18012,7 @@
         <v>1100</v>
       </c>
       <c r="B2202">
-        <v>-5862.5145270801304</v>
+        <v>-5861.2577578027003</v>
       </c>
     </row>
     <row r="2203" spans="1:2" x14ac:dyDescent="0.25">
@@ -18495,7 +18020,7 @@
         <v>1100.5</v>
       </c>
       <c r="B2203">
-        <v>-5872.6012442494903</v>
+        <v>-5871.3393246993601</v>
       </c>
     </row>
     <row r="2204" spans="1:2" x14ac:dyDescent="0.25">
@@ -18503,7 +18028,7 @@
         <v>1101</v>
       </c>
       <c r="B2204">
-        <v>-5882.6897574704299</v>
+        <v>-5881.42258961482</v>
       </c>
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.25">
@@ -18511,7 +18036,7 @@
         <v>1101.5</v>
       </c>
       <c r="B2205">
-        <v>-5892.7800233381904</v>
+        <v>-5891.5075199094799</v>
       </c>
     </row>
     <row r="2206" spans="1:2" x14ac:dyDescent="0.25">
@@ -18519,7 +18044,7 @@
         <v>1102</v>
       </c>
       <c r="B2206">
-        <v>-5902.8720021852496</v>
+        <v>-5901.5940858537897</v>
       </c>
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.25">
@@ -18527,7 +18052,7 @@
         <v>1102.5</v>
       </c>
       <c r="B2207">
-        <v>-5912.9656565650503</v>
+        <v>-5911.68225909582</v>
       </c>
     </row>
     <row r="2208" spans="1:2" x14ac:dyDescent="0.25">
@@ -18535,7 +18060,7 @@
         <v>1103</v>
       </c>
       <c r="B2208">
-        <v>-5923.0609511169796</v>
+        <v>-5921.7720125829601</v>
       </c>
     </row>
     <row r="2209" spans="1:2" x14ac:dyDescent="0.25">
@@ -18543,7 +18068,7 @@
         <v>1103.5</v>
       </c>
       <c r="B2209">
-        <v>-5933.1578524526303</v>
+        <v>-5931.8633205024998</v>
       </c>
     </row>
     <row r="2210" spans="1:2" x14ac:dyDescent="0.25">
@@ -18551,7 +18076,7 @@
         <v>1104</v>
       </c>
       <c r="B2210">
-        <v>-5943.2563290481103</v>
+        <v>-5941.9561582251899</v>
       </c>
     </row>
     <row r="2211" spans="1:2" x14ac:dyDescent="0.25">
@@ -18559,7 +18084,7 @@
         <v>1104.5</v>
       </c>
       <c r="B2211">
-        <v>-5953.3563511420398</v>
+        <v>-5952.0505022512698</v>
       </c>
     </row>
     <row r="2212" spans="1:2" x14ac:dyDescent="0.25">
@@ -18567,7 +18092,7 @@
         <v>1105</v>
       </c>
       <c r="B2212">
-        <v>-5962.3354973615997</v>
+        <v>-5961.0245715025903</v>
       </c>
     </row>
     <row r="2213" spans="1:2" x14ac:dyDescent="0.25">
@@ -18575,7 +18100,7 @@
         <v>1105.5</v>
       </c>
       <c r="B2213">
-        <v>-5971.3039763442102</v>
+        <v>-5969.9879617098304</v>
       </c>
     </row>
     <row r="2214" spans="1:2" x14ac:dyDescent="0.25">
@@ -18583,7 +18108,7 @@
         <v>1106</v>
       </c>
       <c r="B2214">
-        <v>-5980.2725587304803</v>
+        <v>-5978.9516339636903</v>
       </c>
     </row>
     <row r="2215" spans="1:2" x14ac:dyDescent="0.25">
@@ -18591,7 +18116,7 @@
         <v>1106.5</v>
       </c>
       <c r="B2215">
-        <v>-5988.1202808476401</v>
+        <v>-5986.7952046927303</v>
       </c>
     </row>
     <row r="2216" spans="1:2" x14ac:dyDescent="0.25">
@@ -18599,7 +18124,7 @@
         <v>1107</v>
       </c>
       <c r="B2216">
-        <v>-5995.95779191565</v>
+        <v>-5994.62870563653</v>
       </c>
     </row>
     <row r="2217" spans="1:2" x14ac:dyDescent="0.25">
@@ -18607,7 +18132,7 @@
         <v>1107.5</v>
       </c>
       <c r="B2217">
-        <v>-6003.7945415292797</v>
+        <v>-6002.4617401486403</v>
       </c>
     </row>
     <row r="2218" spans="1:2" x14ac:dyDescent="0.25">
@@ -18615,7 +18140,7 @@
         <v>1108</v>
       </c>
       <c r="B2218">
-        <v>-6010.5112361130996</v>
+        <v>-6009.1754796404803</v>
       </c>
     </row>
     <row r="2219" spans="1:2" x14ac:dyDescent="0.25">
@@ -18623,7 +18148,7 @@
         <v>1108.5</v>
       </c>
       <c r="B2219">
-        <v>-6017.2185540497003</v>
+        <v>-6015.8800534971697</v>
       </c>
     </row>
     <row r="2220" spans="1:2" x14ac:dyDescent="0.25">
@@ -18631,7 +18156,7 @@
         <v>1109</v>
       </c>
       <c r="B2220">
-        <v>-6023.9246037109297</v>
+        <v>-6022.5836944764096</v>
       </c>
     </row>
     <row r="2221" spans="1:2" x14ac:dyDescent="0.25">
@@ -18639,7 +18164,7 @@
         <v>1109.5</v>
       </c>
       <c r="B2221">
-        <v>-6029.5120514608398</v>
+        <v>-6028.1693855168396</v>
       </c>
     </row>
     <row r="2222" spans="1:2" x14ac:dyDescent="0.25">
@@ -18647,7 +18172,7 @@
         <v>1110</v>
       </c>
       <c r="B2222">
-        <v>-6035.09125548258</v>
+        <v>-6033.7470570150799</v>
       </c>
     </row>
     <row r="2223" spans="1:2" x14ac:dyDescent="0.25">
@@ -18655,7 +18180,7 @@
         <v>1110.5</v>
       </c>
       <c r="B2223">
-        <v>-6036.2067985773001</v>
+        <v>-6034.86235841696</v>
       </c>
     </row>
     <row r="2224" spans="1:2" x14ac:dyDescent="0.25">
@@ -18663,7 +18188,7 @@
         <v>1111</v>
       </c>
       <c r="B2224">
-        <v>-6037.3162115343102</v>
+        <v>-6035.97158702043</v>
       </c>
     </row>
     <row r="2225" spans="1:2" x14ac:dyDescent="0.25">
@@ -18671,7 +18196,7 @@
         <v>1111.5</v>
       </c>
       <c r="B2225">
-        <v>-6038.4248447612499</v>
+        <v>-6037.0801878845696</v>
       </c>
     </row>
     <row r="2226" spans="1:2" x14ac:dyDescent="0.25">
@@ -18679,7 +18204,7 @@
         <v>1112</v>
       </c>
       <c r="B2226">
-        <v>-6038.4248447612499</v>
+        <v>-6037.0801878845696</v>
       </c>
     </row>
     <row r="2227" spans="1:2" x14ac:dyDescent="0.25">
@@ -18687,7 +18212,7 @@
         <v>1112.5</v>
       </c>
       <c r="B2227">
-        <v>-6038.4248447612499</v>
+        <v>-6037.0801878845696</v>
       </c>
     </row>
     <row r="2228" spans="1:2" x14ac:dyDescent="0.25">
@@ -18695,7 +18220,7 @@
         <v>1113</v>
       </c>
       <c r="B2228">
-        <v>-6038.4248447612499</v>
+        <v>-6037.0801878845696</v>
       </c>
     </row>
     <row r="2229" spans="1:2" x14ac:dyDescent="0.25">
@@ -18703,7 +18228,7 @@
         <v>1113.5</v>
       </c>
       <c r="B2229">
-        <v>-6038.4248447612499</v>
+        <v>-6037.0801878845696</v>
       </c>
     </row>
     <row r="2230" spans="1:2" x14ac:dyDescent="0.25">
@@ -18711,7 +18236,7 @@
         <v>1114</v>
       </c>
       <c r="B2230">
-        <v>-6037.3212171912101</v>
+        <v>-6035.9760077944302</v>
       </c>
     </row>
     <row r="2231" spans="1:2" x14ac:dyDescent="0.25">
@@ -18719,7 +18244,7 @@
         <v>1114.5</v>
       </c>
       <c r="B2231">
-        <v>-6036.2196496511797</v>
+        <v>-6034.8738081797201</v>
       </c>
     </row>
     <row r="2232" spans="1:2" x14ac:dyDescent="0.25">
@@ -18727,7 +18252,7 @@
         <v>1115</v>
       </c>
       <c r="B2232">
-        <v>-6035.1188026590698</v>
+        <v>-6033.7722339984603</v>
       </c>
     </row>
     <row r="2233" spans="1:2" x14ac:dyDescent="0.25">
@@ -18735,7 +18260,7 @@
         <v>1115.5</v>
       </c>
       <c r="B2233">
-        <v>-6034.0186345448601</v>
+        <v>-6032.6712575312104</v>
       </c>
     </row>
     <row r="2234" spans="1:2" x14ac:dyDescent="0.25">
@@ -18743,7 +18268,7 @@
         <v>1116</v>
       </c>
       <c r="B2234">
-        <v>-6031.8195753720101</v>
+        <v>-6030.4704442938501</v>
       </c>
     </row>
     <row r="2235" spans="1:2" x14ac:dyDescent="0.25">
@@ -18751,7 +18276,7 @@
         <v>1116.5</v>
       </c>
       <c r="B2235">
-        <v>-6030.7220585465702</v>
+        <v>-6029.3719972035196</v>
       </c>
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.25">
@@ -18759,7 +18284,7 @@
         <v>1117</v>
       </c>
       <c r="B2236">
-        <v>-6027.4273459955602</v>
+        <v>-6026.0742653786601</v>
       </c>
     </row>
     <row r="2237" spans="1:2" x14ac:dyDescent="0.25">
@@ -18767,7 +18292,7 @@
         <v>1117.5</v>
       </c>
       <c r="B2237">
-        <v>-6008.8140763357096</v>
+        <v>-6007.44344170557</v>
       </c>
     </row>
     <row r="2238" spans="1:2" x14ac:dyDescent="0.25">
@@ -18775,7 +18300,7 @@
         <v>1118</v>
       </c>
       <c r="B2238">
-        <v>-5990.5399312825002</v>
+        <v>-5989.1515598444903</v>
       </c>
     </row>
     <row r="2239" spans="1:2" x14ac:dyDescent="0.25">
@@ -18783,7 +18308,7 @@
         <v>1118.5</v>
       </c>
       <c r="B2239">
-        <v>-5989.4669466525802</v>
+        <v>-5988.0771448219903</v>
       </c>
     </row>
     <row r="2240" spans="1:2" x14ac:dyDescent="0.25">
@@ -18791,7 +18316,7 @@
         <v>1119</v>
       </c>
       <c r="B2240">
-        <v>-5990.5591844362098</v>
+        <v>-5989.1712384617804</v>
       </c>
     </row>
     <row r="2241" spans="1:2" x14ac:dyDescent="0.25">
@@ -18799,7 +18324,7 @@
         <v>1119.5</v>
       </c>
       <c r="B2241">
-        <v>-5987.2747417011597</v>
+        <v>-5985.8814211881599</v>
       </c>
     </row>
     <row r="2242" spans="1:2" x14ac:dyDescent="0.25">
@@ -18807,7 +18332,7 @@
         <v>1120</v>
       </c>
       <c r="B2242">
-        <v>-5981.8281608275302</v>
+        <v>-5980.4266367034897</v>
       </c>
     </row>
     <row r="2243" spans="1:2" x14ac:dyDescent="0.25">
@@ -18815,7 +18340,7 @@
         <v>1120.5</v>
       </c>
       <c r="B2243">
-        <v>-5968.7943210001604</v>
+        <v>-5967.3735026394797</v>
       </c>
     </row>
     <row r="2244" spans="1:2" x14ac:dyDescent="0.25">
@@ -18823,7 +18348,7 @@
         <v>1121</v>
       </c>
       <c r="B2244">
-        <v>-5949.4256610656303</v>
+        <v>-5947.9763227339299</v>
       </c>
     </row>
     <row r="2245" spans="1:2" x14ac:dyDescent="0.25">
@@ -18831,7 +18356,7 @@
         <v>1121.5</v>
       </c>
       <c r="B2245">
-        <v>-5925.95541800501</v>
+        <v>-5924.4683472467004</v>
       </c>
     </row>
     <row r="2246" spans="1:2" x14ac:dyDescent="0.25">
@@ -18839,7 +18364,7 @@
         <v>1122</v>
       </c>
       <c r="B2246">
-        <v>-5900.5190487523996</v>
+        <v>-5898.98514171223</v>
       </c>
     </row>
     <row r="2247" spans="1:2" x14ac:dyDescent="0.25">
@@ -18847,7 +18372,7 @@
         <v>1122.5</v>
       </c>
       <c r="B2247">
-        <v>-5874.1397723100099</v>
+        <v>-5872.55003224135</v>
       </c>
     </row>
     <row r="2248" spans="1:2" x14ac:dyDescent="0.25">
@@ -18855,7 +18380,7 @@
         <v>1123</v>
       </c>
       <c r="B2248">
-        <v>-5846.7964744874498</v>
+        <v>-5845.1415341739303</v>
       </c>
     </row>
     <row r="2249" spans="1:2" x14ac:dyDescent="0.25">
@@ -18863,7 +18388,7 @@
         <v>1123.5</v>
       </c>
       <c r="B2249">
-        <v>-5819.5435007141396</v>
+        <v>-5817.8170777923997</v>
       </c>
     </row>
     <row r="2250" spans="1:2" x14ac:dyDescent="0.25">
@@ -18871,7 +18396,7 @@
         <v>1124</v>
       </c>
       <c r="B2250">
-        <v>-5792.3475017461897</v>
+        <v>-5790.5437735392297</v>
       </c>
     </row>
     <row r="2251" spans="1:2" x14ac:dyDescent="0.25">
@@ -18879,7 +18404,7 @@
         <v>1124.5</v>
       </c>
       <c r="B2251">
-        <v>-5766.2497094545097</v>
+        <v>-5764.36713221638</v>
       </c>
     </row>
     <row r="2252" spans="1:2" x14ac:dyDescent="0.25">
@@ -18887,7 +18412,7 @@
         <v>1125</v>
       </c>
       <c r="B2252">
-        <v>-5742.2570042812004</v>
+        <v>-5740.2982857728002</v>
       </c>
     </row>
     <row r="2253" spans="1:2" x14ac:dyDescent="0.25">
@@ -18895,7 +18420,7 @@
         <v>1125.5</v>
       </c>
       <c r="B2253">
-        <v>-5718.2496286802498</v>
+        <v>-5716.2119912399903</v>
       </c>
     </row>
     <row r="2254" spans="1:2" x14ac:dyDescent="0.25">
@@ -18903,7 +18428,7 @@
         <v>1126</v>
       </c>
       <c r="B2254">
-        <v>-5703.6577683753303</v>
+        <v>-5701.5715569958102</v>
       </c>
     </row>
     <row r="2255" spans="1:2" x14ac:dyDescent="0.25">
@@ -18911,7 +18436,7 @@
         <v>1126.5</v>
       </c>
       <c r="B2255">
-        <v>-5693.1391484727201</v>
+        <v>-5691.0168100568699</v>
       </c>
     </row>
     <row r="2256" spans="1:2" x14ac:dyDescent="0.25">
@@ -18919,7 +18444,7 @@
         <v>1127</v>
       </c>
       <c r="B2256">
-        <v>-5654.0571596912396</v>
+        <v>-5651.8043217104396</v>
       </c>
     </row>
     <row r="2257" spans="1:2" x14ac:dyDescent="0.25">
@@ -18927,7 +18452,7 @@
         <v>1127.5</v>
       </c>
       <c r="B2257">
-        <v>-5586.5212141839102</v>
+        <v>-5584.0707519297603</v>
       </c>
     </row>
     <row r="2258" spans="1:2" x14ac:dyDescent="0.25">
@@ -18935,7 +18460,7 @@
         <v>1128</v>
       </c>
       <c r="B2258">
-        <v>-5485.5568730120503</v>
+        <v>-5482.80562984265</v>
       </c>
     </row>
     <row r="2259" spans="1:2" x14ac:dyDescent="0.25">
@@ -18943,7 +18468,7 @@
         <v>1128.5</v>
       </c>
       <c r="B2259">
-        <v>-5417.0324556332998</v>
+        <v>-5414.0548198077004</v>
       </c>
     </row>
     <row r="2260" spans="1:2" x14ac:dyDescent="0.25">
@@ -18951,7 +18476,7 @@
         <v>1129</v>
       </c>
       <c r="B2260">
-        <v>-5379.90207191223</v>
+        <v>-5376.7603858777502</v>
       </c>
     </row>
     <row r="2261" spans="1:2" x14ac:dyDescent="0.25">
@@ -18959,7 +18484,7 @@
         <v>1129.5</v>
       </c>
       <c r="B2261">
-        <v>-5315.5527738296096</v>
+        <v>-5312.0895639860901</v>
       </c>
     </row>
     <row r="2262" spans="1:2" x14ac:dyDescent="0.25">
@@ -18967,7 +18492,7 @@
         <v>1130</v>
       </c>
       <c r="B2262">
-        <v>-5237.4696742630804</v>
+        <v>-5233.6495648937098</v>
       </c>
     </row>
     <row r="2263" spans="1:2" x14ac:dyDescent="0.25">
@@ -18975,7 +18500,7 @@
         <v>1130.5</v>
       </c>
       <c r="B2263">
-        <v>-5153.0534300841</v>
+        <v>-5148.8429725175502</v>
       </c>
     </row>
     <row r="2264" spans="1:2" x14ac:dyDescent="0.25">
@@ -18983,7 +18508,7 @@
         <v>1131</v>
       </c>
       <c r="B2264">
-        <v>-5068.5629295545596</v>
+        <v>-5063.9471266339297</v>
       </c>
     </row>
     <row r="2265" spans="1:2" x14ac:dyDescent="0.25">
@@ -18991,7 +18516,7 @@
         <v>1131.5</v>
       </c>
       <c r="B2265">
-        <v>-4981.6003084601998</v>
+        <v>-4976.54907571894</v>
       </c>
     </row>
     <row r="2266" spans="1:2" x14ac:dyDescent="0.25">
@@ -18999,7 +18524,7 @@
         <v>1132</v>
       </c>
       <c r="B2266">
-        <v>-4888.6119487040796</v>
+        <v>-4883.08569661612</v>
       </c>
     </row>
     <row r="2267" spans="1:2" x14ac:dyDescent="0.25">
@@ -19007,7 +18532,7 @@
         <v>1132.5</v>
       </c>
       <c r="B2267">
-        <v>-4794.6460925685196</v>
+        <v>-4788.6382989387703</v>
       </c>
     </row>
     <row r="2268" spans="1:2" x14ac:dyDescent="0.25">
@@ -19015,7 +18540,7 @@
         <v>1133</v>
       </c>
       <c r="B2268">
-        <v>-4702.0528557946</v>
+        <v>-4695.5651871608598</v>
       </c>
     </row>
     <row r="2269" spans="1:2" x14ac:dyDescent="0.25">
@@ -19023,7 +18548,7 @@
         <v>1133.5</v>
       </c>
       <c r="B2269">
-        <v>-4702.0528557946</v>
+        <v>-4695.5651871608598</v>
       </c>
     </row>
     <row r="2270" spans="1:2" x14ac:dyDescent="0.25">
@@ -19031,7 +18556,7 @@
         <v>1134</v>
       </c>
       <c r="B2270">
-        <v>-4604.4721682436802</v>
+        <v>-4597.3564643295704</v>
       </c>
     </row>
     <row r="2271" spans="1:2" x14ac:dyDescent="0.25">
@@ -19039,7 +18564,7 @@
         <v>1134.5</v>
       </c>
       <c r="B2271">
-        <v>-4575.9669748727702</v>
+        <v>-4568.72146145037</v>
       </c>
     </row>
     <row r="2272" spans="1:2" x14ac:dyDescent="0.25">
@@ -19047,7 +18572,7 @@
         <v>1135</v>
       </c>
       <c r="B2272">
-        <v>-4515.3879764345102</v>
+        <v>-4507.8057160427898</v>
       </c>
     </row>
     <row r="2273" spans="1:2" x14ac:dyDescent="0.25">
@@ -19055,7 +18580,7 @@
         <v>1135.5</v>
       </c>
       <c r="B2273">
-        <v>-4430.9280151052099</v>
+        <v>-4422.9426254586597</v>
       </c>
     </row>
     <row r="2274" spans="1:2" x14ac:dyDescent="0.25">
@@ -19063,7 +18588,7 @@
         <v>1136</v>
       </c>
       <c r="B2274">
-        <v>-4344.6792569188301</v>
+        <v>-4336.3225391311898</v>
       </c>
     </row>
     <row r="2275" spans="1:2" x14ac:dyDescent="0.25">
@@ -19071,7 +18596,7 @@
         <v>1136.5</v>
       </c>
       <c r="B2275">
-        <v>-4247.6985737606901</v>
+        <v>-4238.9371204568897</v>
       </c>
     </row>
     <row r="2276" spans="1:2" x14ac:dyDescent="0.25">
@@ -19079,7 +18604,7 @@
         <v>1137</v>
       </c>
       <c r="B2276">
-        <v>-4152.7697825150399</v>
+        <v>-4143.6395121096502</v>
       </c>
     </row>
     <row r="2277" spans="1:2" x14ac:dyDescent="0.25">
@@ -19087,7 +18612,7 @@
         <v>1137.5</v>
       </c>
       <c r="B2277">
-        <v>-4152.7697825150399</v>
+        <v>-4143.6395121096502</v>
       </c>
     </row>
     <row r="2278" spans="1:2" x14ac:dyDescent="0.25">
@@ -19095,7 +18620,7 @@
         <v>1138</v>
       </c>
       <c r="B2278">
-        <v>-4045.8673412205599</v>
+        <v>-4036.2243915846602</v>
       </c>
     </row>
     <row r="2279" spans="1:2" x14ac:dyDescent="0.25">
@@ -19103,7 +18628,7 @@
         <v>1138.5</v>
       </c>
       <c r="B2279">
-        <v>-4018.7517172909502</v>
+        <v>-4009.0257274348101</v>
       </c>
     </row>
     <row r="2280" spans="1:2" x14ac:dyDescent="0.25">
@@ -19111,7 +18636,7 @@
         <v>1139</v>
       </c>
       <c r="B2280">
-        <v>-3965.6676632375402</v>
+        <v>-3955.7275216160901</v>
       </c>
     </row>
     <row r="2281" spans="1:2" x14ac:dyDescent="0.25">
@@ -19119,7 +18644,7 @@
         <v>1139.5</v>
       </c>
       <c r="B2281">
-        <v>-3886.29682479435</v>
+        <v>-3876.0694516469098</v>
       </c>
     </row>
     <row r="2282" spans="1:2" x14ac:dyDescent="0.25">
@@ -19127,7 +18652,7 @@
         <v>1140</v>
       </c>
       <c r="B2282">
-        <v>-3800.3960824855199</v>
+        <v>-3789.8942551140599</v>
       </c>
     </row>
     <row r="2283" spans="1:2" x14ac:dyDescent="0.25">
@@ -19135,7 +18660,7 @@
         <v>1140.5</v>
       </c>
       <c r="B2283">
-        <v>-3707.7761154885702</v>
+        <v>-3697.0002706100299</v>
       </c>
     </row>
     <row r="2284" spans="1:2" x14ac:dyDescent="0.25">
@@ -19143,7 +18668,7 @@
         <v>1141</v>
       </c>
       <c r="B2284">
-        <v>-3607.6631080151401</v>
+        <v>-3596.61469388263</v>
       </c>
     </row>
     <row r="2285" spans="1:2" x14ac:dyDescent="0.25">
@@ -19151,7 +18676,7 @@
         <v>1141.5</v>
       </c>
       <c r="B2285">
-        <v>-3507.48188556285</v>
+        <v>-3496.1835441960902</v>
       </c>
     </row>
     <row r="2286" spans="1:2" x14ac:dyDescent="0.25">
@@ -19159,7 +18684,7 @@
         <v>1142</v>
       </c>
       <c r="B2286">
-        <v>-3408.4494814691998</v>
+        <v>-3396.9202090481799</v>
       </c>
     </row>
     <row r="2287" spans="1:2" x14ac:dyDescent="0.25">
@@ -19167,7 +18692,7 @@
         <v>1142.5</v>
       </c>
       <c r="B2287">
-        <v>-3310.4478691417398</v>
+        <v>-3298.7046210063399</v>
       </c>
     </row>
     <row r="2288" spans="1:2" x14ac:dyDescent="0.25">
@@ -19175,7 +18700,7 @@
         <v>1143</v>
       </c>
       <c r="B2288">
-        <v>-3213.4633849864599</v>
+        <v>-3201.5219757883801</v>
       </c>
     </row>
     <row r="2289" spans="1:2" x14ac:dyDescent="0.25">
@@ -19183,7 +18708,7 @@
         <v>1143.5</v>
       </c>
       <c r="B2289">
-        <v>-3118.3736928419999</v>
+        <v>-3106.25049254329</v>
       </c>
     </row>
     <row r="2290" spans="1:2" x14ac:dyDescent="0.25">
@@ -19191,7 +18716,7 @@
         <v>1144</v>
       </c>
       <c r="B2290">
-        <v>-3024.1965910504</v>
+        <v>-3011.9044342106299</v>
       </c>
     </row>
     <row r="2291" spans="1:2" x14ac:dyDescent="0.25">
@@ -19199,7 +18724,7 @@
         <v>1144.5</v>
       </c>
       <c r="B2291">
-        <v>-2936.36316324889</v>
+        <v>-2923.9236933274501</v>
       </c>
     </row>
     <row r="2292" spans="1:2" x14ac:dyDescent="0.25">
@@ -19207,7 +18732,7 @@
         <v>1145</v>
       </c>
       <c r="B2292">
-        <v>-2936.36316324889</v>
+        <v>-2923.9236933274501</v>
       </c>
     </row>
     <row r="2293" spans="1:2" x14ac:dyDescent="0.25">
@@ -19215,7 +18740,7 @@
         <v>1145.5</v>
       </c>
       <c r="B2293">
-        <v>-2842.7164097753998</v>
+        <v>-2830.0832482615101</v>
       </c>
     </row>
     <row r="2294" spans="1:2" x14ac:dyDescent="0.25">
@@ -19223,7 +18748,7 @@
         <v>1146</v>
       </c>
       <c r="B2294">
-        <v>-2804.9925065040802</v>
+        <v>-2792.3091146462002</v>
       </c>
     </row>
     <row r="2295" spans="1:2" x14ac:dyDescent="0.25">
@@ -19231,7 +18756,7 @@
         <v>1146.5</v>
       </c>
       <c r="B2295">
-        <v>-2722.4598652310901</v>
+        <v>-2709.6428592534498</v>
       </c>
     </row>
     <row r="2296" spans="1:2" x14ac:dyDescent="0.25">
@@ -19239,7 +18764,7 @@
         <v>1147</v>
       </c>
       <c r="B2296">
-        <v>-2622.7576105733401</v>
+        <v>-2609.8177405548099</v>
       </c>
     </row>
     <row r="2297" spans="1:2" x14ac:dyDescent="0.25">
@@ -19247,7 +18772,7 @@
         <v>1147.5</v>
       </c>
       <c r="B2297">
-        <v>-2519.98392562871</v>
+        <v>-2506.9350397675198</v>
       </c>
     </row>
     <row r="2298" spans="1:2" x14ac:dyDescent="0.25">
@@ -19255,7 +18780,7 @@
         <v>1148</v>
       </c>
       <c r="B2298">
-        <v>-2419.3883504147798</v>
+        <v>-2406.2424947517402</v>
       </c>
     </row>
     <row r="2299" spans="1:2" x14ac:dyDescent="0.25">
@@ -19263,7 +18788,7 @@
         <v>1148.5</v>
       </c>
       <c r="B2299">
-        <v>-2319.67342809928</v>
+        <v>-2306.4382491052602</v>
       </c>
     </row>
     <row r="2300" spans="1:2" x14ac:dyDescent="0.25">
@@ -19271,7 +18796,7 @@
         <v>1149</v>
       </c>
       <c r="B2300">
-        <v>-2221.80693218751</v>
+        <v>-2208.4911965797701</v>
       </c>
     </row>
     <row r="2301" spans="1:2" x14ac:dyDescent="0.25">
@@ -19279,7 +18804,7 @@
         <v>1149.5</v>
       </c>
       <c r="B2301">
-        <v>-2125.7044373056601</v>
+        <v>-2112.31564825034</v>
       </c>
     </row>
     <row r="2302" spans="1:2" x14ac:dyDescent="0.25">
@@ -19287,7 +18812,7 @@
         <v>1150</v>
       </c>
       <c r="B2302">
-        <v>-2031.35777770392</v>
+        <v>-2017.9029605373801</v>
       </c>
     </row>
     <row r="2303" spans="1:2" x14ac:dyDescent="0.25">
@@ -19295,7 +18820,7 @@
         <v>1150.5</v>
       </c>
       <c r="B2303">
-        <v>-1938.7553004853301</v>
+        <v>-1925.2409671287601</v>
       </c>
     </row>
     <row r="2304" spans="1:2" x14ac:dyDescent="0.25">
@@ -19303,7 +18828,7 @@
         <v>1151</v>
       </c>
       <c r="B2304">
-        <v>-1850.5597789579299</v>
+        <v>-1836.9935560947899</v>
       </c>
     </row>
     <row r="2305" spans="1:2" x14ac:dyDescent="0.25">
@@ -19311,7 +18836,7 @@
         <v>1151.5</v>
       </c>
       <c r="B2305">
-        <v>-1767.5030212152899</v>
+        <v>-1753.89264040237</v>
       </c>
     </row>
     <row r="2306" spans="1:2" x14ac:dyDescent="0.25">
@@ -19319,7 +18844,7 @@
         <v>1152</v>
       </c>
       <c r="B2306">
-        <v>-1717.32819487395</v>
+        <v>-1703.6928670770201</v>
       </c>
     </row>
     <row r="2307" spans="1:2" x14ac:dyDescent="0.25">
@@ -19327,7 +18852,7 @@
         <v>1152.5</v>
       </c>
       <c r="B2307">
-        <v>-1645.73876900296</v>
+        <v>-1632.0599539638499</v>
       </c>
     </row>
     <row r="2308" spans="1:2" x14ac:dyDescent="0.25">
@@ -19335,7 +18860,7 @@
         <v>1153</v>
       </c>
       <c r="B2308">
-        <v>-1580.6089309552599</v>
+        <v>-1566.9022291802701</v>
       </c>
     </row>
     <row r="2309" spans="1:2" x14ac:dyDescent="0.25">
@@ -19343,7 +18868,7 @@
         <v>1153.5</v>
       </c>
       <c r="B2309">
-        <v>-1490.6075988024299</v>
+        <v>-1476.86405263601</v>
       </c>
     </row>
     <row r="2310" spans="1:2" x14ac:dyDescent="0.25">
@@ -19351,7 +18876,7 @@
         <v>1154</v>
       </c>
       <c r="B2310">
-        <v>-1398.5966490846499</v>
+        <v>-1384.8324420173001</v>
       </c>
     </row>
     <row r="2311" spans="1:2" x14ac:dyDescent="0.25">
@@ -19359,7 +18884,7 @@
         <v>1154.5</v>
       </c>
       <c r="B2311">
-        <v>-1310.3408794873901</v>
+        <v>-1296.5618828787201</v>
       </c>
     </row>
     <row r="2312" spans="1:2" x14ac:dyDescent="0.25">
@@ -19367,7 +18892,7 @@
         <v>1155</v>
       </c>
       <c r="B2312">
-        <v>-1229.94617878791</v>
+        <v>-1216.1566406173899</v>
       </c>
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.25">
@@ -19375,7 +18900,7 @@
         <v>1155.5</v>
       </c>
       <c r="B2313">
-        <v>-1152.7269117235401</v>
+        <v>-1138.9286388970299</v>
       </c>
     </row>
     <row r="2314" spans="1:2" x14ac:dyDescent="0.25">
@@ -19383,7 +18908,7 @@
         <v>1156</v>
       </c>
       <c r="B2314">
-        <v>-1070.83444335426</v>
+        <v>-1057.03027900808</v>
       </c>
     </row>
     <row r="2315" spans="1:2" x14ac:dyDescent="0.25">
@@ -19391,7 +18916,7 @@
         <v>1156.5</v>
       </c>
       <c r="B2315">
-        <v>-988.30042689163304</v>
+        <v>-974.49661567215696</v>
       </c>
     </row>
     <row r="2316" spans="1:2" x14ac:dyDescent="0.25">
@@ -19399,7 +18924,7 @@
         <v>1157</v>
       </c>
       <c r="B2316">
-        <v>-915.66891734977605</v>
+        <v>-901.869313709023</v>
       </c>
     </row>
     <row r="2317" spans="1:2" x14ac:dyDescent="0.25">
@@ -19407,7 +18932,7 @@
         <v>1157.5</v>
       </c>
       <c r="B2317">
-        <v>-915.66891734977605</v>
+        <v>-901.869313709023</v>
       </c>
     </row>
     <row r="2318" spans="1:2" x14ac:dyDescent="0.25">
@@ -19415,7 +18940,7 @@
         <v>1158</v>
       </c>
       <c r="B2318">
-        <v>-830.01815150002096</v>
+        <v>-816.19857354678095</v>
       </c>
     </row>
     <row r="2319" spans="1:2" x14ac:dyDescent="0.25">
@@ -19423,7 +18948,7 @@
         <v>1158.5</v>
       </c>
       <c r="B2319">
-        <v>-770.676964458317</v>
+        <v>-756.87220887063404</v>
       </c>
     </row>
     <row r="2320" spans="1:2" x14ac:dyDescent="0.25">
@@ -19431,7 +18956,7 @@
         <v>1159</v>
       </c>
       <c r="B2320">
-        <v>-734.97517919192705</v>
+        <v>-721.17582899295098</v>
       </c>
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.25">
@@ -19439,7 +18964,7 @@
         <v>1159.5</v>
       </c>
       <c r="B2321">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2322" spans="1:2" x14ac:dyDescent="0.25">
@@ -19447,7 +18972,7 @@
         <v>1160</v>
       </c>
       <c r="B2322">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2323" spans="1:2" x14ac:dyDescent="0.25">
@@ -19455,7 +18980,7 @@
         <v>1160.5</v>
       </c>
       <c r="B2323">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2324" spans="1:2" x14ac:dyDescent="0.25">
@@ -19463,7 +18988,7 @@
         <v>1161</v>
       </c>
       <c r="B2324">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2325" spans="1:2" x14ac:dyDescent="0.25">
@@ -19471,7 +18996,7 @@
         <v>1161.5</v>
       </c>
       <c r="B2325">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2326" spans="1:2" x14ac:dyDescent="0.25">
@@ -19479,7 +19004,7 @@
         <v>1162</v>
       </c>
       <c r="B2326">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2327" spans="1:2" x14ac:dyDescent="0.25">
@@ -19487,7 +19012,7 @@
         <v>1162.5</v>
       </c>
       <c r="B2327">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2328" spans="1:2" x14ac:dyDescent="0.25">
@@ -19495,7 +19020,7 @@
         <v>1163</v>
       </c>
       <c r="B2328">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2329" spans="1:2" x14ac:dyDescent="0.25">
@@ -19503,7 +19028,7 @@
         <v>1163.5</v>
       </c>
       <c r="B2329">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2330" spans="1:2" x14ac:dyDescent="0.25">
@@ -19511,7 +19036,7 @@
         <v>1164</v>
       </c>
       <c r="B2330">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2331" spans="1:2" x14ac:dyDescent="0.25">
@@ -19519,7 +19044,7 @@
         <v>1164.5</v>
       </c>
       <c r="B2331">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2332" spans="1:2" x14ac:dyDescent="0.25">
@@ -19527,7 +19052,7 @@
         <v>1165</v>
       </c>
       <c r="B2332">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2333" spans="1:2" x14ac:dyDescent="0.25">
@@ -19535,7 +19060,7 @@
         <v>1165.5</v>
       </c>
       <c r="B2333">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2334" spans="1:2" x14ac:dyDescent="0.25">
@@ -19543,7 +19068,7 @@
         <v>1166</v>
       </c>
       <c r="B2334">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2335" spans="1:2" x14ac:dyDescent="0.25">
@@ -19551,7 +19076,7 @@
         <v>1166.5</v>
       </c>
       <c r="B2335">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2336" spans="1:2" x14ac:dyDescent="0.25">
@@ -19559,7 +19084,7 @@
         <v>1167</v>
       </c>
       <c r="B2336">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2337" spans="1:2" x14ac:dyDescent="0.25">
@@ -19567,7 +19092,7 @@
         <v>1167.5</v>
       </c>
       <c r="B2337">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2338" spans="1:2" x14ac:dyDescent="0.25">
@@ -19575,7 +19100,7 @@
         <v>1168</v>
       </c>
       <c r="B2338">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2339" spans="1:2" x14ac:dyDescent="0.25">
@@ -19583,7 +19108,7 @@
         <v>1168.5</v>
       </c>
       <c r="B2339">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2340" spans="1:2" x14ac:dyDescent="0.25">
@@ -19591,7 +19116,7 @@
         <v>1169</v>
       </c>
       <c r="B2340">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2341" spans="1:2" x14ac:dyDescent="0.25">
@@ -19599,7 +19124,7 @@
         <v>1169.5</v>
       </c>
       <c r="B2341">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2342" spans="1:2" x14ac:dyDescent="0.25">
@@ -19607,7 +19132,7 @@
         <v>1170</v>
       </c>
       <c r="B2342">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2343" spans="1:2" x14ac:dyDescent="0.25">
@@ -19615,7 +19140,7 @@
         <v>1170.5</v>
       </c>
       <c r="B2343">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2344" spans="1:2" x14ac:dyDescent="0.25">
@@ -19623,7 +19148,7 @@
         <v>1171</v>
       </c>
       <c r="B2344">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2345" spans="1:2" x14ac:dyDescent="0.25">
@@ -19631,7 +19156,7 @@
         <v>1171.5</v>
       </c>
       <c r="B2345">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2346" spans="1:2" x14ac:dyDescent="0.25">
@@ -19639,7 +19164,7 @@
         <v>1172</v>
       </c>
       <c r="B2346">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2347" spans="1:2" x14ac:dyDescent="0.25">
@@ -19647,7 +19172,7 @@
         <v>1172.5</v>
       </c>
       <c r="B2347">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2348" spans="1:2" x14ac:dyDescent="0.25">
@@ -19655,7 +19180,7 @@
         <v>1173</v>
       </c>
       <c r="B2348">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2349" spans="1:2" x14ac:dyDescent="0.25">
@@ -19663,7 +19188,7 @@
         <v>1173.5</v>
       </c>
       <c r="B2349">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2350" spans="1:2" x14ac:dyDescent="0.25">
@@ -19671,7 +19196,7 @@
         <v>1174</v>
       </c>
       <c r="B2350">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2351" spans="1:2" x14ac:dyDescent="0.25">
@@ -19679,7 +19204,7 @@
         <v>1174.5</v>
       </c>
       <c r="B2351">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2352" spans="1:2" x14ac:dyDescent="0.25">
@@ -19687,7 +19212,7 @@
         <v>1175</v>
       </c>
       <c r="B2352">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2353" spans="1:2" x14ac:dyDescent="0.25">
@@ -19695,7 +19220,7 @@
         <v>1175.5</v>
       </c>
       <c r="B2353">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2354" spans="1:2" x14ac:dyDescent="0.25">
@@ -19703,7 +19228,7 @@
         <v>1176</v>
       </c>
       <c r="B2354">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2355" spans="1:2" x14ac:dyDescent="0.25">
@@ -19711,7 +19236,7 @@
         <v>1176.5</v>
       </c>
       <c r="B2355">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2356" spans="1:2" x14ac:dyDescent="0.25">
@@ -19719,7 +19244,7 @@
         <v>1177</v>
       </c>
       <c r="B2356">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2357" spans="1:2" x14ac:dyDescent="0.25">
@@ -19727,7 +19252,7 @@
         <v>1177.5</v>
       </c>
       <c r="B2357">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2358" spans="1:2" x14ac:dyDescent="0.25">
@@ -19735,7 +19260,7 @@
         <v>1178</v>
       </c>
       <c r="B2358">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2359" spans="1:2" x14ac:dyDescent="0.25">
@@ -19743,7 +19268,7 @@
         <v>1178.5</v>
       </c>
       <c r="B2359">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2360" spans="1:2" x14ac:dyDescent="0.25">
@@ -19751,7 +19276,7 @@
         <v>1179</v>
       </c>
       <c r="B2360">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2361" spans="1:2" x14ac:dyDescent="0.25">
@@ -19759,7 +19284,7 @@
         <v>1179.5</v>
       </c>
       <c r="B2361">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
     <row r="2362" spans="1:2" x14ac:dyDescent="0.25">
@@ -19767,7 +19292,7 @@
         <v>1180</v>
       </c>
       <c r="B2362">
-        <v>-696.77123535098201</v>
+        <v>-682.97543929414201</v>
       </c>
     </row>
   </sheetData>
